--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848341322986841</v>
+        <v>0.9848341322986849</v>
       </c>
       <c r="D2">
-        <v>1.006032342026358</v>
+        <v>1.006032342026359</v>
       </c>
       <c r="E2">
-        <v>0.9938289856424708</v>
+        <v>0.9938289856424716</v>
       </c>
       <c r="F2">
-        <v>0.9945852745421471</v>
+        <v>0.9945852745421475</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.039343399650549</v>
       </c>
       <c r="J2">
-        <v>1.007478111309757</v>
+        <v>1.007478111309758</v>
       </c>
       <c r="K2">
         <v>1.017408271631953</v>
       </c>
       <c r="L2">
-        <v>1.005374967293456</v>
+        <v>1.005374967293457</v>
       </c>
       <c r="M2">
         <v>1.006120564120341</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928345830199906</v>
+        <v>0.9928345830199896</v>
       </c>
       <c r="D3">
-        <v>1.011962044434588</v>
+        <v>1.011962044434587</v>
       </c>
       <c r="E3">
-        <v>1.000713770913363</v>
+        <v>1.000713770913362</v>
       </c>
       <c r="F3">
-        <v>1.00315982625537</v>
+        <v>1.003159826255369</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042125949060869</v>
+        <v>1.042125949060868</v>
       </c>
       <c r="J3">
-        <v>1.01352250897426</v>
+        <v>1.013522508974259</v>
       </c>
       <c r="K3">
-        <v>1.022444122794523</v>
+        <v>1.022444122794522</v>
       </c>
       <c r="L3">
-        <v>1.011337527046933</v>
+        <v>1.011337527046931</v>
       </c>
       <c r="M3">
-        <v>1.013752435541598</v>
+        <v>1.013752435541597</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9978392595979765</v>
+        <v>0.9978392595979771</v>
       </c>
       <c r="D4">
-        <v>1.015673193302362</v>
+        <v>1.015673193302363</v>
       </c>
       <c r="E4">
-        <v>1.005025774566499</v>
+        <v>1.0050257745665</v>
       </c>
       <c r="F4">
         <v>1.00852683867606</v>
@@ -515,7 +515,7 @@
         <v>1.043850208643658</v>
       </c>
       <c r="J4">
-        <v>1.017298399300121</v>
+        <v>1.017298399300122</v>
       </c>
       <c r="K4">
         <v>1.025586066469255</v>
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9999045564329614</v>
+        <v>0.9999045564329611</v>
       </c>
       <c r="D5">
         <v>1.017204986905233</v>
@@ -553,7 +553,7 @@
         <v>1.04455776759707</v>
       </c>
       <c r="J5">
-        <v>1.018855295599183</v>
+        <v>1.018855295599182</v>
       </c>
       <c r="K5">
         <v>1.026880596455001</v>
@@ -582,25 +582,25 @@
         <v>1.007103528087212</v>
       </c>
       <c r="F6">
-        <v>1.011112172203941</v>
+        <v>1.01111217220394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044675579669808</v>
+        <v>1.044675579669807</v>
       </c>
       <c r="J6">
-        <v>1.019114969122981</v>
+        <v>1.01911496912298</v>
       </c>
       <c r="K6">
-        <v>1.027096451837774</v>
+        <v>1.027096451837773</v>
       </c>
       <c r="L6">
         <v>1.016857151284146</v>
       </c>
       <c r="M6">
-        <v>1.020819872994781</v>
+        <v>1.02081987299478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9978670049554568</v>
+        <v>0.9978670049554573</v>
       </c>
       <c r="D7">
-        <v>1.015693770517117</v>
+        <v>1.015693770517118</v>
       </c>
       <c r="E7">
         <v>1.005049690944351</v>
       </c>
       <c r="F7">
-        <v>1.008556600373033</v>
+        <v>1.008556600373034</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.043859729969371</v>
       </c>
       <c r="J7">
-        <v>1.017319320056689</v>
+        <v>1.01731932005669</v>
       </c>
       <c r="K7">
         <v>1.025603465588107</v>
@@ -638,7 +638,7 @@
         <v>1.015084569201222</v>
       </c>
       <c r="M7">
-        <v>1.018549873011139</v>
+        <v>1.01854987301114</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9875751781882816</v>
+        <v>0.9875751781882822</v>
       </c>
       <c r="D8">
-        <v>1.00806345102211</v>
+        <v>1.008063451022111</v>
       </c>
       <c r="E8">
-        <v>0.9961866245337931</v>
+        <v>0.9961866245337935</v>
       </c>
       <c r="F8">
-        <v>0.997522359209803</v>
+        <v>0.9975223592098037</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.040300149996352</v>
       </c>
       <c r="J8">
-        <v>1.00955004158509</v>
+        <v>1.009550041585091</v>
       </c>
       <c r="K8">
-        <v>1.01913529439737</v>
+        <v>1.019135294397371</v>
       </c>
       <c r="L8">
         <v>1.007418499394313</v>
       </c>
       <c r="M8">
-        <v>1.008735996640426</v>
+        <v>1.008735996640427</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9679921973615835</v>
+        <v>0.9679921973615845</v>
       </c>
       <c r="D9">
-        <v>0.9935669057970752</v>
+        <v>0.9935669057970758</v>
       </c>
       <c r="E9">
-        <v>0.979370082311672</v>
+        <v>0.9793700823116727</v>
       </c>
       <c r="F9">
-        <v>0.9765509941175886</v>
+        <v>0.9765509941175885</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033396680939667</v>
       </c>
       <c r="J9">
-        <v>0.9947281664621943</v>
+        <v>0.9947281664621951</v>
       </c>
       <c r="K9">
         <v>1.006765224934824</v>
       </c>
       <c r="L9">
-        <v>0.9928069748679273</v>
+        <v>0.9928069748679279</v>
       </c>
       <c r="M9">
-        <v>0.9900363281266352</v>
+        <v>0.9900363281266353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.953755542480504</v>
+        <v>0.9537555424805038</v>
       </c>
       <c r="D10">
-        <v>0.9830548856868239</v>
+        <v>0.9830548856868236</v>
       </c>
       <c r="E10">
-        <v>0.9671855010468746</v>
+        <v>0.9671855010468742</v>
       </c>
       <c r="F10">
-        <v>0.9613181960238945</v>
+        <v>0.961318196023894</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.028294173842537</v>
       </c>
       <c r="J10">
-        <v>0.9839321665831211</v>
+        <v>0.9839321665831208</v>
       </c>
       <c r="K10">
-        <v>0.9977369811384087</v>
+        <v>0.9977369811384086</v>
       </c>
       <c r="L10">
-        <v>0.9821736321106781</v>
+        <v>0.9821736321106779</v>
       </c>
       <c r="M10">
         <v>0.9764228421305092</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9472541395682653</v>
+        <v>0.947254139568264</v>
       </c>
       <c r="D11">
-        <v>0.9782638535937506</v>
+        <v>0.9782638535937495</v>
       </c>
       <c r="E11">
-        <v>0.9616331130835781</v>
+        <v>0.9616331130835769</v>
       </c>
       <c r="F11">
-        <v>0.954364052276597</v>
+        <v>0.9543640522765952</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025945523191684</v>
+        <v>1.025945523191683</v>
       </c>
       <c r="J11">
-        <v>0.9789986384239607</v>
+        <v>0.9789986384239594</v>
       </c>
       <c r="K11">
-        <v>0.993607662664953</v>
+        <v>0.9936076626649516</v>
       </c>
       <c r="L11">
-        <v>0.9773167516884361</v>
+        <v>0.977316751688435</v>
       </c>
       <c r="M11">
-        <v>0.9702011553249519</v>
+        <v>0.9702011553249503</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447828506504914</v>
+        <v>0.9447828506504889</v>
       </c>
       <c r="D12">
-        <v>0.9764444278186321</v>
+        <v>0.9764444278186302</v>
       </c>
       <c r="E12">
-        <v>0.9595245643591712</v>
+        <v>0.9595245643591694</v>
       </c>
       <c r="F12">
-        <v>0.9517208911341688</v>
+        <v>0.9517208911341668</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025050119485386</v>
+        <v>1.025050119485385</v>
       </c>
       <c r="J12">
-        <v>0.9771229729433895</v>
+        <v>0.9771229729433871</v>
       </c>
       <c r="K12">
-        <v>0.9920372710910118</v>
+        <v>0.99203727109101</v>
       </c>
       <c r="L12">
-        <v>0.9754705825006895</v>
+        <v>0.9754705825006875</v>
       </c>
       <c r="M12">
-        <v>0.9678354215405048</v>
+        <v>0.9678354215405028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9453156047908337</v>
+        <v>0.9453156047908305</v>
       </c>
       <c r="D13">
-        <v>0.9768365719587512</v>
+        <v>0.9768365719587486</v>
       </c>
       <c r="E13">
-        <v>0.959979025723483</v>
+        <v>0.9599790257234802</v>
       </c>
       <c r="F13">
-        <v>0.9522906889127146</v>
+        <v>0.9522906889127126</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025243265164804</v>
+        <v>1.025243265164802</v>
       </c>
       <c r="J13">
-        <v>0.9775273372700432</v>
+        <v>0.9775273372700403</v>
       </c>
       <c r="K13">
-        <v>0.9923758434458718</v>
+        <v>0.9923758434458695</v>
       </c>
       <c r="L13">
-        <v>0.9758685717016088</v>
+        <v>0.9758685717016061</v>
       </c>
       <c r="M13">
-        <v>0.9683454557982213</v>
+        <v>0.9683454557982195</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9470510489086209</v>
+        <v>0.9470510489086206</v>
       </c>
       <c r="D14">
-        <v>0.9781142963058778</v>
+        <v>0.9781142963058775</v>
       </c>
       <c r="E14">
-        <v>0.9614597905051783</v>
+        <v>0.9614597905051772</v>
       </c>
       <c r="F14">
-        <v>0.954146833318807</v>
+        <v>0.954146833318806</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025871991543918</v>
       </c>
       <c r="J14">
-        <v>0.9788445022903733</v>
+        <v>0.9788445022903727</v>
       </c>
       <c r="K14">
-        <v>0.9934786221933449</v>
+        <v>0.9934786221933446</v>
       </c>
       <c r="L14">
-        <v>0.977165032212298</v>
+        <v>0.9771650322122972</v>
       </c>
       <c r="M14">
-        <v>0.970006755027552</v>
+        <v>0.9700067550275511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9481126539549291</v>
+        <v>0.9481126539549303</v>
       </c>
       <c r="D15">
-        <v>0.9788961410085389</v>
+        <v>0.9788961410085398</v>
       </c>
       <c r="E15">
-        <v>0.9623658731019132</v>
+        <v>0.9623658731019149</v>
       </c>
       <c r="F15">
-        <v>0.9552822988081345</v>
+        <v>0.9552822988081354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026256253248427</v>
+        <v>1.026256253248428</v>
       </c>
       <c r="J15">
-        <v>0.9796501966486106</v>
+        <v>0.9796501966486119</v>
       </c>
       <c r="K15">
-        <v>0.9941531185753857</v>
+        <v>0.9941531185753868</v>
       </c>
       <c r="L15">
-        <v>0.9779581087951469</v>
+        <v>0.9779581087951481</v>
       </c>
       <c r="M15">
-        <v>0.9710229019333054</v>
+        <v>0.9710229019333065</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9541794505019947</v>
+        <v>0.9541794505019938</v>
       </c>
       <c r="D16">
-        <v>0.9833674925329742</v>
+        <v>0.9833674925329737</v>
       </c>
       <c r="E16">
-        <v>0.9675477936407816</v>
+        <v>0.9675477936407807</v>
       </c>
       <c r="F16">
-        <v>0.9617716603208075</v>
+        <v>0.9617716603208065</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02844694142276</v>
       </c>
       <c r="J16">
-        <v>0.9842537883232961</v>
+        <v>0.9842537883232952</v>
       </c>
       <c r="K16">
-        <v>0.9980061065146175</v>
+        <v>0.9980061065146172</v>
       </c>
       <c r="L16">
-        <v>0.9824903054735726</v>
+        <v>0.9824903054735717</v>
       </c>
       <c r="M16">
-        <v>0.9768284086341816</v>
+        <v>0.9768284086341809</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9578910163747265</v>
+        <v>0.9578910163747254</v>
       </c>
       <c r="D17">
-        <v>0.9861056442770761</v>
+        <v>0.9861056442770751</v>
       </c>
       <c r="E17">
-        <v>0.9707212389127389</v>
+        <v>0.9707212389127379</v>
       </c>
       <c r="F17">
-        <v>0.9657422417285633</v>
+        <v>0.9657422417285624</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.029782448937083</v>
       </c>
       <c r="J17">
-        <v>0.9870694164453753</v>
+        <v>0.9870694164453743</v>
       </c>
       <c r="K17">
-        <v>1.000361758168475</v>
+        <v>1.000361758168474</v>
       </c>
       <c r="L17">
-        <v>0.9852628740081248</v>
+        <v>0.9852628740081238</v>
       </c>
       <c r="M17">
-        <v>0.9803788338908485</v>
+        <v>0.9803788338908475</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9600238451699943</v>
+        <v>0.960023845169993</v>
       </c>
       <c r="D18">
-        <v>0.987679968593175</v>
+        <v>0.9876799685931741</v>
       </c>
       <c r="E18">
-        <v>0.9725459366721011</v>
+        <v>0.9725459366720997</v>
       </c>
       <c r="F18">
-        <v>0.9680241220042491</v>
+        <v>0.9680241220042475</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030548151530319</v>
       </c>
       <c r="J18">
-        <v>0.9886870755901184</v>
+        <v>0.9886870755901169</v>
       </c>
       <c r="K18">
-        <v>1.0017148053641</v>
+        <v>1.001714805364099</v>
       </c>
       <c r="L18">
-        <v>0.9868560100362758</v>
+        <v>0.9868560100362747</v>
       </c>
       <c r="M18">
-        <v>0.9824186126396777</v>
+        <v>0.9824186126396763</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9607458065442797</v>
+        <v>0.9607458065442805</v>
       </c>
       <c r="D19">
-        <v>0.9882130144655189</v>
+        <v>0.9882130144655196</v>
       </c>
       <c r="E19">
-        <v>0.9731637760115541</v>
+        <v>0.9731637760115549</v>
       </c>
       <c r="F19">
-        <v>0.9687965755337768</v>
+        <v>0.9687965755337773</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030807042738165</v>
+        <v>1.030807042738166</v>
       </c>
       <c r="J19">
-        <v>0.9892345931073879</v>
+        <v>0.9892345931073886</v>
       </c>
       <c r="K19">
-        <v>1.002172701677359</v>
+        <v>1.00217270167736</v>
       </c>
       <c r="L19">
-        <v>0.9873952638012313</v>
+        <v>0.9873952638012319</v>
       </c>
       <c r="M19">
-        <v>0.9831090010244777</v>
+        <v>0.9831090010244783</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574961558754331</v>
+        <v>0.9574961558754329</v>
       </c>
       <c r="D20">
         <v>0.9858142502168009</v>
       </c>
       <c r="E20">
-        <v>0.9703835116648876</v>
+        <v>0.9703835116648877</v>
       </c>
       <c r="F20">
-        <v>0.9653198043152942</v>
+        <v>0.9653198043152946</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029640548930703</v>
+        <v>1.029640548930702</v>
       </c>
       <c r="J20">
-        <v>0.9867699043676812</v>
+        <v>0.9867699043676813</v>
       </c>
       <c r="K20">
-        <v>1.00011121119356</v>
+        <v>1.000111211193559</v>
       </c>
       <c r="L20">
-        <v>0.984967919882245</v>
+        <v>0.9849679198822452</v>
       </c>
       <c r="M20">
-        <v>0.9800011637985411</v>
+        <v>0.9800011637985414</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9465416112877854</v>
+        <v>0.9465416112877842</v>
       </c>
       <c r="D21">
-        <v>0.9777391718963111</v>
+        <v>0.9777391718963095</v>
       </c>
       <c r="E21">
-        <v>0.9610250568512607</v>
+        <v>0.9610250568512595</v>
       </c>
       <c r="F21">
-        <v>0.9536019591038845</v>
+        <v>0.9536019591038832</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025687500982969</v>
+        <v>1.025687500982968</v>
       </c>
       <c r="J21">
-        <v>0.9784578583262548</v>
+        <v>0.9784578583262534</v>
       </c>
       <c r="K21">
-        <v>0.9931549222215202</v>
+        <v>0.9931549222215187</v>
       </c>
       <c r="L21">
-        <v>0.9767844560738471</v>
+        <v>0.9767844560738457</v>
       </c>
       <c r="M21">
-        <v>0.9695191040186034</v>
+        <v>0.9695191040186022</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393242726249366</v>
+        <v>0.9393242726249355</v>
       </c>
       <c r="D22">
-        <v>0.972429242982774</v>
+        <v>0.9724292429827734</v>
       </c>
       <c r="E22">
-        <v>0.9548711784994199</v>
+        <v>0.9548711784994188</v>
       </c>
       <c r="F22">
-        <v>0.9458829586547272</v>
+        <v>0.9458829586547257</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023067634863775</v>
+        <v>1.023067634863774</v>
       </c>
       <c r="J22">
-        <v>0.9729795467832292</v>
+        <v>0.9729795467832281</v>
       </c>
       <c r="K22">
-        <v>0.9885674085434422</v>
+        <v>0.9885674085434415</v>
       </c>
       <c r="L22">
-        <v>0.9713929824393625</v>
+        <v>0.9713929824393616</v>
       </c>
       <c r="M22">
-        <v>0.9626085194606983</v>
+        <v>0.9626085194606974</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431837665926147</v>
+        <v>0.9431837665926146</v>
       </c>
       <c r="D23">
         <v>0.9752676689257023</v>
       </c>
       <c r="E23">
-        <v>0.95816079157137</v>
+        <v>0.9581607915713699</v>
       </c>
       <c r="F23">
-        <v>0.9500106424270361</v>
+        <v>0.950010642427036</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024470008557511</v>
       </c>
       <c r="J23">
-        <v>0.975909217839346</v>
+        <v>0.9759092178393459</v>
       </c>
       <c r="K23">
-        <v>0.9910209353576146</v>
+        <v>0.9910209353576145</v>
       </c>
       <c r="L23">
-        <v>0.9742760160445231</v>
+        <v>0.974276016044523</v>
       </c>
       <c r="M23">
-        <v>0.9663044158390743</v>
+        <v>0.9663044158390741</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9576746750028269</v>
+        <v>0.9576746750028272</v>
       </c>
       <c r="D24">
-        <v>0.9859459888019521</v>
+        <v>0.9859459888019523</v>
       </c>
       <c r="E24">
-        <v>0.9705361970644338</v>
+        <v>0.9705361970644342</v>
       </c>
       <c r="F24">
-        <v>0.9655107904941901</v>
+        <v>0.9655107904941903</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.029704708309036</v>
       </c>
       <c r="J24">
-        <v>0.9869053168427663</v>
+        <v>0.9869053168427665</v>
       </c>
       <c r="K24">
-        <v>1.000224487113908</v>
+        <v>1.000224487113909</v>
       </c>
       <c r="L24">
-        <v>0.9851012709899238</v>
+        <v>0.9851012709899243</v>
       </c>
       <c r="M24">
-        <v>0.9801719124271722</v>
+        <v>0.9801719124271724</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9732461087177144</v>
+        <v>0.9732461087177132</v>
       </c>
       <c r="D25">
-        <v>0.9974525360985755</v>
+        <v>0.9974525360985745</v>
       </c>
       <c r="E25">
-        <v>0.9838755058146336</v>
+        <v>0.9838755058146326</v>
       </c>
       <c r="F25">
-        <v>0.9821748940307959</v>
+        <v>0.9821748940307956</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035263372484412</v>
+        <v>1.035263372484411</v>
       </c>
       <c r="J25">
-        <v>0.9987086562012764</v>
+        <v>0.9987086562012754</v>
       </c>
       <c r="K25">
-        <v>1.010090527304121</v>
+        <v>1.01009052730412</v>
       </c>
       <c r="L25">
-        <v>0.9967293997300518</v>
+        <v>0.9967293997300509</v>
       </c>
       <c r="M25">
-        <v>0.9950563714634084</v>
+        <v>0.9950563714634081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848341322986849</v>
+        <v>0.9848341322986841</v>
       </c>
       <c r="D2">
-        <v>1.006032342026359</v>
+        <v>1.006032342026358</v>
       </c>
       <c r="E2">
-        <v>0.9938289856424716</v>
+        <v>0.9938289856424708</v>
       </c>
       <c r="F2">
-        <v>0.9945852745421475</v>
+        <v>0.9945852745421471</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.039343399650549</v>
       </c>
       <c r="J2">
-        <v>1.007478111309758</v>
+        <v>1.007478111309757</v>
       </c>
       <c r="K2">
         <v>1.017408271631953</v>
       </c>
       <c r="L2">
-        <v>1.005374967293457</v>
+        <v>1.005374967293456</v>
       </c>
       <c r="M2">
         <v>1.006120564120341</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928345830199896</v>
+        <v>0.9928345830199906</v>
       </c>
       <c r="D3">
-        <v>1.011962044434587</v>
+        <v>1.011962044434588</v>
       </c>
       <c r="E3">
-        <v>1.000713770913362</v>
+        <v>1.000713770913363</v>
       </c>
       <c r="F3">
-        <v>1.003159826255369</v>
+        <v>1.00315982625537</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042125949060868</v>
+        <v>1.042125949060869</v>
       </c>
       <c r="J3">
-        <v>1.013522508974259</v>
+        <v>1.01352250897426</v>
       </c>
       <c r="K3">
-        <v>1.022444122794522</v>
+        <v>1.022444122794523</v>
       </c>
       <c r="L3">
-        <v>1.011337527046931</v>
+        <v>1.011337527046933</v>
       </c>
       <c r="M3">
-        <v>1.013752435541597</v>
+        <v>1.013752435541598</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9978392595979771</v>
+        <v>0.9978392595979765</v>
       </c>
       <c r="D4">
-        <v>1.015673193302363</v>
+        <v>1.015673193302362</v>
       </c>
       <c r="E4">
-        <v>1.0050257745665</v>
+        <v>1.005025774566499</v>
       </c>
       <c r="F4">
         <v>1.00852683867606</v>
@@ -515,7 +515,7 @@
         <v>1.043850208643658</v>
       </c>
       <c r="J4">
-        <v>1.017298399300122</v>
+        <v>1.017298399300121</v>
       </c>
       <c r="K4">
         <v>1.025586066469255</v>
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9999045564329611</v>
+        <v>0.9999045564329614</v>
       </c>
       <c r="D5">
         <v>1.017204986905233</v>
@@ -553,7 +553,7 @@
         <v>1.04455776759707</v>
       </c>
       <c r="J5">
-        <v>1.018855295599182</v>
+        <v>1.018855295599183</v>
       </c>
       <c r="K5">
         <v>1.026880596455001</v>
@@ -582,25 +582,25 @@
         <v>1.007103528087212</v>
       </c>
       <c r="F6">
-        <v>1.01111217220394</v>
+        <v>1.011112172203941</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044675579669807</v>
+        <v>1.044675579669808</v>
       </c>
       <c r="J6">
-        <v>1.01911496912298</v>
+        <v>1.019114969122981</v>
       </c>
       <c r="K6">
-        <v>1.027096451837773</v>
+        <v>1.027096451837774</v>
       </c>
       <c r="L6">
         <v>1.016857151284146</v>
       </c>
       <c r="M6">
-        <v>1.02081987299478</v>
+        <v>1.020819872994781</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9978670049554573</v>
+        <v>0.9978670049554568</v>
       </c>
       <c r="D7">
-        <v>1.015693770517118</v>
+        <v>1.015693770517117</v>
       </c>
       <c r="E7">
         <v>1.005049690944351</v>
       </c>
       <c r="F7">
-        <v>1.008556600373034</v>
+        <v>1.008556600373033</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.043859729969371</v>
       </c>
       <c r="J7">
-        <v>1.01731932005669</v>
+        <v>1.017319320056689</v>
       </c>
       <c r="K7">
         <v>1.025603465588107</v>
@@ -638,7 +638,7 @@
         <v>1.015084569201222</v>
       </c>
       <c r="M7">
-        <v>1.01854987301114</v>
+        <v>1.018549873011139</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9875751781882822</v>
+        <v>0.9875751781882816</v>
       </c>
       <c r="D8">
-        <v>1.008063451022111</v>
+        <v>1.00806345102211</v>
       </c>
       <c r="E8">
-        <v>0.9961866245337935</v>
+        <v>0.9961866245337931</v>
       </c>
       <c r="F8">
-        <v>0.9975223592098037</v>
+        <v>0.997522359209803</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.040300149996352</v>
       </c>
       <c r="J8">
-        <v>1.009550041585091</v>
+        <v>1.00955004158509</v>
       </c>
       <c r="K8">
-        <v>1.019135294397371</v>
+        <v>1.01913529439737</v>
       </c>
       <c r="L8">
         <v>1.007418499394313</v>
       </c>
       <c r="M8">
-        <v>1.008735996640427</v>
+        <v>1.008735996640426</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9679921973615845</v>
+        <v>0.9679921973615835</v>
       </c>
       <c r="D9">
-        <v>0.9935669057970758</v>
+        <v>0.9935669057970752</v>
       </c>
       <c r="E9">
-        <v>0.9793700823116727</v>
+        <v>0.979370082311672</v>
       </c>
       <c r="F9">
-        <v>0.9765509941175885</v>
+        <v>0.9765509941175886</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033396680939667</v>
       </c>
       <c r="J9">
-        <v>0.9947281664621951</v>
+        <v>0.9947281664621943</v>
       </c>
       <c r="K9">
         <v>1.006765224934824</v>
       </c>
       <c r="L9">
-        <v>0.9928069748679279</v>
+        <v>0.9928069748679273</v>
       </c>
       <c r="M9">
-        <v>0.9900363281266353</v>
+        <v>0.9900363281266352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9537555424805038</v>
+        <v>0.953755542480504</v>
       </c>
       <c r="D10">
-        <v>0.9830548856868236</v>
+        <v>0.9830548856868239</v>
       </c>
       <c r="E10">
-        <v>0.9671855010468742</v>
+        <v>0.9671855010468746</v>
       </c>
       <c r="F10">
-        <v>0.961318196023894</v>
+        <v>0.9613181960238945</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.028294173842537</v>
       </c>
       <c r="J10">
-        <v>0.9839321665831208</v>
+        <v>0.9839321665831211</v>
       </c>
       <c r="K10">
-        <v>0.9977369811384086</v>
+        <v>0.9977369811384087</v>
       </c>
       <c r="L10">
-        <v>0.9821736321106779</v>
+        <v>0.9821736321106781</v>
       </c>
       <c r="M10">
         <v>0.9764228421305092</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.947254139568264</v>
+        <v>0.9472541395682653</v>
       </c>
       <c r="D11">
-        <v>0.9782638535937495</v>
+        <v>0.9782638535937506</v>
       </c>
       <c r="E11">
-        <v>0.9616331130835769</v>
+        <v>0.9616331130835781</v>
       </c>
       <c r="F11">
-        <v>0.9543640522765952</v>
+        <v>0.954364052276597</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025945523191683</v>
+        <v>1.025945523191684</v>
       </c>
       <c r="J11">
-        <v>0.9789986384239594</v>
+        <v>0.9789986384239607</v>
       </c>
       <c r="K11">
-        <v>0.9936076626649516</v>
+        <v>0.993607662664953</v>
       </c>
       <c r="L11">
-        <v>0.977316751688435</v>
+        <v>0.9773167516884361</v>
       </c>
       <c r="M11">
-        <v>0.9702011553249503</v>
+        <v>0.9702011553249519</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447828506504889</v>
+        <v>0.9447828506504914</v>
       </c>
       <c r="D12">
-        <v>0.9764444278186302</v>
+        <v>0.9764444278186321</v>
       </c>
       <c r="E12">
-        <v>0.9595245643591694</v>
+        <v>0.9595245643591712</v>
       </c>
       <c r="F12">
-        <v>0.9517208911341668</v>
+        <v>0.9517208911341688</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025050119485385</v>
+        <v>1.025050119485386</v>
       </c>
       <c r="J12">
-        <v>0.9771229729433871</v>
+        <v>0.9771229729433895</v>
       </c>
       <c r="K12">
-        <v>0.99203727109101</v>
+        <v>0.9920372710910118</v>
       </c>
       <c r="L12">
-        <v>0.9754705825006875</v>
+        <v>0.9754705825006895</v>
       </c>
       <c r="M12">
-        <v>0.9678354215405028</v>
+        <v>0.9678354215405048</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9453156047908305</v>
+        <v>0.9453156047908337</v>
       </c>
       <c r="D13">
-        <v>0.9768365719587486</v>
+        <v>0.9768365719587512</v>
       </c>
       <c r="E13">
-        <v>0.9599790257234802</v>
+        <v>0.959979025723483</v>
       </c>
       <c r="F13">
-        <v>0.9522906889127126</v>
+        <v>0.9522906889127146</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025243265164802</v>
+        <v>1.025243265164804</v>
       </c>
       <c r="J13">
-        <v>0.9775273372700403</v>
+        <v>0.9775273372700432</v>
       </c>
       <c r="K13">
-        <v>0.9923758434458695</v>
+        <v>0.9923758434458718</v>
       </c>
       <c r="L13">
-        <v>0.9758685717016061</v>
+        <v>0.9758685717016088</v>
       </c>
       <c r="M13">
-        <v>0.9683454557982195</v>
+        <v>0.9683454557982213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9470510489086206</v>
+        <v>0.9470510489086209</v>
       </c>
       <c r="D14">
-        <v>0.9781142963058775</v>
+        <v>0.9781142963058778</v>
       </c>
       <c r="E14">
-        <v>0.9614597905051772</v>
+        <v>0.9614597905051783</v>
       </c>
       <c r="F14">
-        <v>0.954146833318806</v>
+        <v>0.954146833318807</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025871991543918</v>
       </c>
       <c r="J14">
-        <v>0.9788445022903727</v>
+        <v>0.9788445022903733</v>
       </c>
       <c r="K14">
-        <v>0.9934786221933446</v>
+        <v>0.9934786221933449</v>
       </c>
       <c r="L14">
-        <v>0.9771650322122972</v>
+        <v>0.977165032212298</v>
       </c>
       <c r="M14">
-        <v>0.9700067550275511</v>
+        <v>0.970006755027552</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9481126539549303</v>
+        <v>0.9481126539549291</v>
       </c>
       <c r="D15">
-        <v>0.9788961410085398</v>
+        <v>0.9788961410085389</v>
       </c>
       <c r="E15">
-        <v>0.9623658731019149</v>
+        <v>0.9623658731019132</v>
       </c>
       <c r="F15">
-        <v>0.9552822988081354</v>
+        <v>0.9552822988081345</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026256253248428</v>
+        <v>1.026256253248427</v>
       </c>
       <c r="J15">
-        <v>0.9796501966486119</v>
+        <v>0.9796501966486106</v>
       </c>
       <c r="K15">
-        <v>0.9941531185753868</v>
+        <v>0.9941531185753857</v>
       </c>
       <c r="L15">
-        <v>0.9779581087951481</v>
+        <v>0.9779581087951469</v>
       </c>
       <c r="M15">
-        <v>0.9710229019333065</v>
+        <v>0.9710229019333054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9541794505019938</v>
+        <v>0.9541794505019947</v>
       </c>
       <c r="D16">
-        <v>0.9833674925329737</v>
+        <v>0.9833674925329742</v>
       </c>
       <c r="E16">
-        <v>0.9675477936407807</v>
+        <v>0.9675477936407816</v>
       </c>
       <c r="F16">
-        <v>0.9617716603208065</v>
+        <v>0.9617716603208075</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02844694142276</v>
       </c>
       <c r="J16">
-        <v>0.9842537883232952</v>
+        <v>0.9842537883232961</v>
       </c>
       <c r="K16">
-        <v>0.9980061065146172</v>
+        <v>0.9980061065146175</v>
       </c>
       <c r="L16">
-        <v>0.9824903054735717</v>
+        <v>0.9824903054735726</v>
       </c>
       <c r="M16">
-        <v>0.9768284086341809</v>
+        <v>0.9768284086341816</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9578910163747254</v>
+        <v>0.9578910163747265</v>
       </c>
       <c r="D17">
-        <v>0.9861056442770751</v>
+        <v>0.9861056442770761</v>
       </c>
       <c r="E17">
-        <v>0.9707212389127379</v>
+        <v>0.9707212389127389</v>
       </c>
       <c r="F17">
-        <v>0.9657422417285624</v>
+        <v>0.9657422417285633</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.029782448937083</v>
       </c>
       <c r="J17">
-        <v>0.9870694164453743</v>
+        <v>0.9870694164453753</v>
       </c>
       <c r="K17">
-        <v>1.000361758168474</v>
+        <v>1.000361758168475</v>
       </c>
       <c r="L17">
-        <v>0.9852628740081238</v>
+        <v>0.9852628740081248</v>
       </c>
       <c r="M17">
-        <v>0.9803788338908475</v>
+        <v>0.9803788338908485</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.960023845169993</v>
+        <v>0.9600238451699943</v>
       </c>
       <c r="D18">
-        <v>0.9876799685931741</v>
+        <v>0.987679968593175</v>
       </c>
       <c r="E18">
-        <v>0.9725459366720997</v>
+        <v>0.9725459366721011</v>
       </c>
       <c r="F18">
-        <v>0.9680241220042475</v>
+        <v>0.9680241220042491</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030548151530319</v>
       </c>
       <c r="J18">
-        <v>0.9886870755901169</v>
+        <v>0.9886870755901184</v>
       </c>
       <c r="K18">
-        <v>1.001714805364099</v>
+        <v>1.0017148053641</v>
       </c>
       <c r="L18">
-        <v>0.9868560100362747</v>
+        <v>0.9868560100362758</v>
       </c>
       <c r="M18">
-        <v>0.9824186126396763</v>
+        <v>0.9824186126396777</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9607458065442805</v>
+        <v>0.9607458065442797</v>
       </c>
       <c r="D19">
-        <v>0.9882130144655196</v>
+        <v>0.9882130144655189</v>
       </c>
       <c r="E19">
-        <v>0.9731637760115549</v>
+        <v>0.9731637760115541</v>
       </c>
       <c r="F19">
-        <v>0.9687965755337773</v>
+        <v>0.9687965755337768</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030807042738166</v>
+        <v>1.030807042738165</v>
       </c>
       <c r="J19">
-        <v>0.9892345931073886</v>
+        <v>0.9892345931073879</v>
       </c>
       <c r="K19">
-        <v>1.00217270167736</v>
+        <v>1.002172701677359</v>
       </c>
       <c r="L19">
-        <v>0.9873952638012319</v>
+        <v>0.9873952638012313</v>
       </c>
       <c r="M19">
-        <v>0.9831090010244783</v>
+        <v>0.9831090010244777</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574961558754329</v>
+        <v>0.9574961558754331</v>
       </c>
       <c r="D20">
         <v>0.9858142502168009</v>
       </c>
       <c r="E20">
-        <v>0.9703835116648877</v>
+        <v>0.9703835116648876</v>
       </c>
       <c r="F20">
-        <v>0.9653198043152946</v>
+        <v>0.9653198043152942</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029640548930702</v>
+        <v>1.029640548930703</v>
       </c>
       <c r="J20">
-        <v>0.9867699043676813</v>
+        <v>0.9867699043676812</v>
       </c>
       <c r="K20">
-        <v>1.000111211193559</v>
+        <v>1.00011121119356</v>
       </c>
       <c r="L20">
-        <v>0.9849679198822452</v>
+        <v>0.984967919882245</v>
       </c>
       <c r="M20">
-        <v>0.9800011637985414</v>
+        <v>0.9800011637985411</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9465416112877842</v>
+        <v>0.9465416112877854</v>
       </c>
       <c r="D21">
-        <v>0.9777391718963095</v>
+        <v>0.9777391718963111</v>
       </c>
       <c r="E21">
-        <v>0.9610250568512595</v>
+        <v>0.9610250568512607</v>
       </c>
       <c r="F21">
-        <v>0.9536019591038832</v>
+        <v>0.9536019591038845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025687500982968</v>
+        <v>1.025687500982969</v>
       </c>
       <c r="J21">
-        <v>0.9784578583262534</v>
+        <v>0.9784578583262548</v>
       </c>
       <c r="K21">
-        <v>0.9931549222215187</v>
+        <v>0.9931549222215202</v>
       </c>
       <c r="L21">
-        <v>0.9767844560738457</v>
+        <v>0.9767844560738471</v>
       </c>
       <c r="M21">
-        <v>0.9695191040186022</v>
+        <v>0.9695191040186034</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393242726249355</v>
+        <v>0.9393242726249366</v>
       </c>
       <c r="D22">
-        <v>0.9724292429827734</v>
+        <v>0.972429242982774</v>
       </c>
       <c r="E22">
-        <v>0.9548711784994188</v>
+        <v>0.9548711784994199</v>
       </c>
       <c r="F22">
-        <v>0.9458829586547257</v>
+        <v>0.9458829586547272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023067634863774</v>
+        <v>1.023067634863775</v>
       </c>
       <c r="J22">
-        <v>0.9729795467832281</v>
+        <v>0.9729795467832292</v>
       </c>
       <c r="K22">
-        <v>0.9885674085434415</v>
+        <v>0.9885674085434422</v>
       </c>
       <c r="L22">
-        <v>0.9713929824393616</v>
+        <v>0.9713929824393625</v>
       </c>
       <c r="M22">
-        <v>0.9626085194606974</v>
+        <v>0.9626085194606983</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431837665926146</v>
+        <v>0.9431837665926147</v>
       </c>
       <c r="D23">
         <v>0.9752676689257023</v>
       </c>
       <c r="E23">
-        <v>0.9581607915713699</v>
+        <v>0.95816079157137</v>
       </c>
       <c r="F23">
-        <v>0.950010642427036</v>
+        <v>0.9500106424270361</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024470008557511</v>
       </c>
       <c r="J23">
-        <v>0.9759092178393459</v>
+        <v>0.975909217839346</v>
       </c>
       <c r="K23">
-        <v>0.9910209353576145</v>
+        <v>0.9910209353576146</v>
       </c>
       <c r="L23">
-        <v>0.974276016044523</v>
+        <v>0.9742760160445231</v>
       </c>
       <c r="M23">
-        <v>0.9663044158390741</v>
+        <v>0.9663044158390743</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9576746750028272</v>
+        <v>0.9576746750028269</v>
       </c>
       <c r="D24">
-        <v>0.9859459888019523</v>
+        <v>0.9859459888019521</v>
       </c>
       <c r="E24">
-        <v>0.9705361970644342</v>
+        <v>0.9705361970644338</v>
       </c>
       <c r="F24">
-        <v>0.9655107904941903</v>
+        <v>0.9655107904941901</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.029704708309036</v>
       </c>
       <c r="J24">
-        <v>0.9869053168427665</v>
+        <v>0.9869053168427663</v>
       </c>
       <c r="K24">
-        <v>1.000224487113909</v>
+        <v>1.000224487113908</v>
       </c>
       <c r="L24">
-        <v>0.9851012709899243</v>
+        <v>0.9851012709899238</v>
       </c>
       <c r="M24">
-        <v>0.9801719124271724</v>
+        <v>0.9801719124271722</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9732461087177132</v>
+        <v>0.9732461087177144</v>
       </c>
       <c r="D25">
-        <v>0.9974525360985745</v>
+        <v>0.9974525360985755</v>
       </c>
       <c r="E25">
-        <v>0.9838755058146326</v>
+        <v>0.9838755058146336</v>
       </c>
       <c r="F25">
-        <v>0.9821748940307956</v>
+        <v>0.9821748940307959</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035263372484411</v>
+        <v>1.035263372484412</v>
       </c>
       <c r="J25">
-        <v>0.9987086562012754</v>
+        <v>0.9987086562012764</v>
       </c>
       <c r="K25">
-        <v>1.01009052730412</v>
+        <v>1.010090527304121</v>
       </c>
       <c r="L25">
-        <v>0.9967293997300509</v>
+        <v>0.9967293997300518</v>
       </c>
       <c r="M25">
-        <v>0.9950563714634081</v>
+        <v>0.9950563714634084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848341322986841</v>
+        <v>0.9871548396872671</v>
       </c>
       <c r="D2">
-        <v>1.006032342026358</v>
+        <v>1.007788980067936</v>
       </c>
       <c r="E2">
-        <v>0.9938289856424708</v>
+        <v>0.9957992837117932</v>
       </c>
       <c r="F2">
-        <v>0.9945852745421471</v>
+        <v>0.9962471365519401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039343399650549</v>
+        <v>1.040275803711456</v>
       </c>
       <c r="J2">
-        <v>1.007478111309757</v>
+        <v>1.00972665467613</v>
       </c>
       <c r="K2">
-        <v>1.017408271631953</v>
+        <v>1.019140858176275</v>
       </c>
       <c r="L2">
-        <v>1.005374967293456</v>
+        <v>1.007317453081554</v>
       </c>
       <c r="M2">
-        <v>1.006120564120341</v>
+        <v>1.007759003518105</v>
+      </c>
+      <c r="N2">
+        <v>1.011160582343036</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928345830199906</v>
+        <v>0.9951376962274335</v>
       </c>
       <c r="D3">
-        <v>1.011962044434588</v>
+        <v>1.013708068280528</v>
       </c>
       <c r="E3">
-        <v>1.000713770913363</v>
+        <v>1.002670886888834</v>
       </c>
       <c r="F3">
-        <v>1.00315982625537</v>
+        <v>1.004802016597421</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042125949060869</v>
+        <v>1.043053311824061</v>
       </c>
       <c r="J3">
-        <v>1.01352250897426</v>
+        <v>1.015761795944874</v>
       </c>
       <c r="K3">
-        <v>1.022444122794523</v>
+        <v>1.024168505595664</v>
       </c>
       <c r="L3">
-        <v>1.011337527046933</v>
+        <v>1.013269706908589</v>
       </c>
       <c r="M3">
-        <v>1.013752435541598</v>
+        <v>1.015373821243566</v>
+      </c>
+      <c r="N3">
+        <v>1.017204294204622</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9978392595979765</v>
+        <v>1.000132183548983</v>
       </c>
       <c r="D4">
-        <v>1.015673193302362</v>
+        <v>1.017413123640639</v>
       </c>
       <c r="E4">
-        <v>1.005025774566499</v>
+        <v>1.006975284881238</v>
       </c>
       <c r="F4">
-        <v>1.00852683867606</v>
+        <v>1.010157530984281</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043850208643658</v>
+        <v>1.044774734767249</v>
       </c>
       <c r="J4">
-        <v>1.017298399300121</v>
+        <v>1.019532508662171</v>
       </c>
       <c r="K4">
-        <v>1.025586066469255</v>
+        <v>1.02730583381311</v>
       </c>
       <c r="L4">
-        <v>1.015063919014476</v>
+        <v>1.016990247069024</v>
       </c>
       <c r="M4">
-        <v>1.018523430166859</v>
+        <v>1.020134890067568</v>
+      </c>
+      <c r="N4">
+        <v>1.020980361766484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9999045564329614</v>
+        <v>1.002193455078038</v>
       </c>
       <c r="D5">
-        <v>1.017204986905233</v>
+        <v>1.018942523414387</v>
       </c>
       <c r="E5">
-        <v>1.006806385110147</v>
+        <v>1.008752897904209</v>
       </c>
       <c r="F5">
-        <v>1.010742467979635</v>
+        <v>1.012368592212584</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04455776759707</v>
+        <v>1.045481193708716</v>
       </c>
       <c r="J5">
-        <v>1.018855295599183</v>
+        <v>1.021087403666749</v>
       </c>
       <c r="K5">
-        <v>1.026880596455001</v>
+        <v>1.028598573577824</v>
       </c>
       <c r="L5">
-        <v>1.016600794245731</v>
+        <v>1.018524838879533</v>
       </c>
       <c r="M5">
-        <v>1.020491554186631</v>
+        <v>1.022099080972898</v>
+      </c>
+      <c r="N5">
+        <v>1.022537464900318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000249130762513</v>
+        <v>1.002537367945566</v>
       </c>
       <c r="D6">
-        <v>1.017460565417897</v>
+        <v>1.019197709371853</v>
       </c>
       <c r="E6">
-        <v>1.007103528087212</v>
+        <v>1.009049548741403</v>
       </c>
       <c r="F6">
-        <v>1.011112172203941</v>
+        <v>1.01273754425052</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044675579669808</v>
+        <v>1.045598826262341</v>
       </c>
       <c r="J6">
-        <v>1.019114969122981</v>
+        <v>1.02134675094546</v>
       </c>
       <c r="K6">
-        <v>1.027096451837774</v>
+        <v>1.028814136759999</v>
       </c>
       <c r="L6">
-        <v>1.016857151284146</v>
+        <v>1.018780822382298</v>
       </c>
       <c r="M6">
-        <v>1.020819872994781</v>
+        <v>1.022426752765631</v>
+      </c>
+      <c r="N6">
+        <v>1.022797180481912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9978670049554568</v>
+        <v>1.000159874139342</v>
       </c>
       <c r="D7">
-        <v>1.015693770517117</v>
+        <v>1.017433668230656</v>
       </c>
       <c r="E7">
-        <v>1.005049690944351</v>
+        <v>1.006999160446568</v>
       </c>
       <c r="F7">
-        <v>1.008556600373033</v>
+        <v>1.010187230633646</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043859729969371</v>
+        <v>1.0447842410424</v>
       </c>
       <c r="J7">
-        <v>1.017319320056689</v>
+        <v>1.019553402011357</v>
       </c>
       <c r="K7">
-        <v>1.025603465588107</v>
+        <v>1.02732320844027</v>
       </c>
       <c r="L7">
-        <v>1.015084569201222</v>
+        <v>1.017010866073326</v>
       </c>
       <c r="M7">
-        <v>1.018549873011139</v>
+        <v>1.020161279446978</v>
+      </c>
+      <c r="N7">
+        <v>1.021001284786623</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9875751781882816</v>
+        <v>0.9898896739316405</v>
       </c>
       <c r="D8">
-        <v>1.00806345102211</v>
+        <v>1.009816330179475</v>
       </c>
       <c r="E8">
-        <v>0.9961866245337931</v>
+        <v>0.9981522625032312</v>
       </c>
       <c r="F8">
-        <v>0.997522359209803</v>
+        <v>0.9991772994291676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040300149996352</v>
+        <v>1.041230756184088</v>
       </c>
       <c r="J8">
-        <v>1.00955004158509</v>
+        <v>1.011795276266785</v>
       </c>
       <c r="K8">
-        <v>1.01913529439737</v>
+        <v>1.020864954743817</v>
       </c>
       <c r="L8">
-        <v>1.007418499394313</v>
+        <v>1.009357320876637</v>
       </c>
       <c r="M8">
-        <v>1.008735996640426</v>
+        <v>1.010368426260917</v>
+      </c>
+      <c r="N8">
+        <v>1.013232141613624</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9679921973615835</v>
+        <v>0.9703554631039666</v>
       </c>
       <c r="D9">
-        <v>0.9935669057970752</v>
+        <v>0.9953495391222312</v>
       </c>
       <c r="E9">
-        <v>0.979370082311672</v>
+        <v>0.9813724377716433</v>
       </c>
       <c r="F9">
-        <v>0.9765509941175886</v>
+        <v>0.9782597648971215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033396680939667</v>
+        <v>1.034341790100306</v>
       </c>
       <c r="J9">
-        <v>0.9947281664621943</v>
+        <v>0.9970002995743602</v>
       </c>
       <c r="K9">
-        <v>1.006765224934824</v>
+        <v>1.008518520126575</v>
       </c>
       <c r="L9">
-        <v>0.9928069748679273</v>
+        <v>0.9947751413989749</v>
       </c>
       <c r="M9">
-        <v>0.9900363281266352</v>
+        <v>0.9917156933779612</v>
+      </c>
+      <c r="N9">
+        <v>0.9984161543572884</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.953755542480504</v>
+        <v>0.9561611102591503</v>
       </c>
       <c r="D10">
-        <v>0.9830548856868239</v>
+        <v>0.9848636262135201</v>
       </c>
       <c r="E10">
-        <v>0.9671855010468746</v>
+        <v>0.9692198645326086</v>
       </c>
       <c r="F10">
-        <v>0.9613181960238945</v>
+        <v>0.9630729778695462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028294173842537</v>
+        <v>1.029252360115488</v>
       </c>
       <c r="J10">
-        <v>0.9839321665831211</v>
+        <v>0.9862288966397007</v>
       </c>
       <c r="K10">
-        <v>0.9977369811384087</v>
+        <v>0.9995116583814775</v>
       </c>
       <c r="L10">
-        <v>0.9821736321106781</v>
+        <v>0.9841680286691988</v>
       </c>
       <c r="M10">
-        <v>0.9764228421305092</v>
+        <v>0.9781425812419784</v>
+      </c>
+      <c r="N10">
+        <v>0.9876294547949649</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9472541395682653</v>
+        <v>0.9496811333809995</v>
       </c>
       <c r="D11">
-        <v>0.9782638535937506</v>
+        <v>0.9800858799440461</v>
       </c>
       <c r="E11">
-        <v>0.9616331130835781</v>
+        <v>0.9636837219805</v>
       </c>
       <c r="F11">
-        <v>0.954364052276597</v>
+        <v>0.9561419824129208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025945523191684</v>
+        <v>1.026910444638329</v>
       </c>
       <c r="J11">
-        <v>0.9789986384239607</v>
+        <v>0.9813081401191283</v>
       </c>
       <c r="K11">
-        <v>0.993607662664953</v>
+        <v>0.9953933793596946</v>
       </c>
       <c r="L11">
-        <v>0.9773167516884361</v>
+        <v>0.9793246212019332</v>
       </c>
       <c r="M11">
-        <v>0.9702011553249519</v>
+        <v>0.9719412643171653</v>
+      </c>
+      <c r="N11">
+        <v>0.9827017102357141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447828506504914</v>
+        <v>0.9472183574069423</v>
       </c>
       <c r="D12">
-        <v>0.9764444278186321</v>
+        <v>0.9782717414623999</v>
       </c>
       <c r="E12">
-        <v>0.9595245643591712</v>
+        <v>0.961581632395844</v>
       </c>
       <c r="F12">
-        <v>0.9517208911341688</v>
+        <v>0.9535079957595566</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025050119485386</v>
+        <v>1.026017733152953</v>
       </c>
       <c r="J12">
-        <v>0.9771229729433895</v>
+        <v>0.9794375972800465</v>
       </c>
       <c r="K12">
-        <v>0.9920372710910118</v>
+        <v>0.9938274054476308</v>
       </c>
       <c r="L12">
-        <v>0.9754705825006895</v>
+        <v>0.9774838335000389</v>
       </c>
       <c r="M12">
-        <v>0.9678354215405048</v>
+        <v>0.9695836121599519</v>
+      </c>
+      <c r="N12">
+        <v>0.9808285110112469</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9453156047908337</v>
+        <v>0.9477492587757416</v>
       </c>
       <c r="D13">
-        <v>0.9768365719587512</v>
+        <v>0.978662734494665</v>
       </c>
       <c r="E13">
-        <v>0.959979025723483</v>
+        <v>0.9620346877858124</v>
       </c>
       <c r="F13">
-        <v>0.9522906889127146</v>
+        <v>0.9540757977907324</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025243265164804</v>
+        <v>1.026210292174543</v>
       </c>
       <c r="J13">
-        <v>0.9775273372700432</v>
+        <v>0.9798408445237319</v>
       </c>
       <c r="K13">
-        <v>0.9923758434458718</v>
+        <v>0.994165014922552</v>
       </c>
       <c r="L13">
-        <v>0.9758685717016088</v>
+        <v>0.9778806501852901</v>
       </c>
       <c r="M13">
-        <v>0.9683454557982213</v>
+        <v>0.9700918880361462</v>
+      </c>
+      <c r="N13">
+        <v>0.9812323309122712</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9470510489086209</v>
+        <v>0.9494787345157878</v>
       </c>
       <c r="D14">
-        <v>0.9781142963058778</v>
+        <v>0.9799367521548592</v>
       </c>
       <c r="E14">
-        <v>0.9614597905051783</v>
+        <v>0.9635109242084511</v>
       </c>
       <c r="F14">
-        <v>0.954146833318807</v>
+        <v>0.9559255094579646</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025871991543918</v>
+        <v>1.026837131450028</v>
       </c>
       <c r="J14">
-        <v>0.9788445022903733</v>
+        <v>0.9811544193006682</v>
       </c>
       <c r="K14">
-        <v>0.9934786221933449</v>
+        <v>0.9952646972551331</v>
       </c>
       <c r="L14">
-        <v>0.977165032212298</v>
+        <v>0.9791733384762956</v>
       </c>
       <c r="M14">
-        <v>0.970006755027552</v>
+        <v>0.9717475209949474</v>
+      </c>
+      <c r="N14">
+        <v>0.9825477711160597</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9481126539549291</v>
+        <v>0.9505367386695688</v>
       </c>
       <c r="D15">
-        <v>0.9788961410085389</v>
+        <v>0.9807163615911606</v>
       </c>
       <c r="E15">
-        <v>0.9623658731019132</v>
+        <v>0.964414275288883</v>
       </c>
       <c r="F15">
-        <v>0.9552822988081345</v>
+        <v>0.9570570909911222</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026256253248427</v>
+        <v>1.027220256683689</v>
       </c>
       <c r="J15">
-        <v>0.9796501966486106</v>
+        <v>0.9819579538116818</v>
       </c>
       <c r="K15">
-        <v>0.9941531185753857</v>
+        <v>0.9959373295387428</v>
       </c>
       <c r="L15">
-        <v>0.9779581087951469</v>
+        <v>0.979964142843192</v>
       </c>
       <c r="M15">
-        <v>0.9710229019333054</v>
+        <v>0.9727602477838431</v>
+      </c>
+      <c r="N15">
+        <v>0.9833524467382462</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9541794505019947</v>
+        <v>0.9565836688022535</v>
       </c>
       <c r="D16">
-        <v>0.9833674925329742</v>
+        <v>0.985175397449757</v>
       </c>
       <c r="E16">
-        <v>0.9675477936407816</v>
+        <v>0.9695811345625099</v>
       </c>
       <c r="F16">
-        <v>0.9617716603208075</v>
+        <v>0.9635249811799005</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02844694142276</v>
+        <v>1.029404705654193</v>
       </c>
       <c r="J16">
-        <v>0.9842537883232961</v>
+        <v>0.9865497202639089</v>
       </c>
       <c r="K16">
-        <v>0.9980061065146175</v>
+        <v>0.9997800925979471</v>
       </c>
       <c r="L16">
-        <v>0.9824903054735726</v>
+        <v>0.9844838571883281</v>
       </c>
       <c r="M16">
-        <v>0.9768284086341816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9785468632324225</v>
+      </c>
+      <c r="N16">
+        <v>0.9879507340255181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9578910163747265</v>
+        <v>0.9602836608780505</v>
       </c>
       <c r="D17">
-        <v>0.9861056442770761</v>
+        <v>0.9879063891399054</v>
       </c>
       <c r="E17">
-        <v>0.9707212389127389</v>
+        <v>0.97274581330751</v>
       </c>
       <c r="F17">
-        <v>0.9657422417285633</v>
+        <v>0.9674830158872116</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029782448937083</v>
+        <v>1.03073660531844</v>
       </c>
       <c r="J17">
-        <v>0.9870694164453753</v>
+        <v>0.9893585367441305</v>
       </c>
       <c r="K17">
-        <v>1.000361758168475</v>
+        <v>1.002129838764755</v>
       </c>
       <c r="L17">
-        <v>0.9852628740081248</v>
+        <v>0.9872491998574108</v>
       </c>
       <c r="M17">
-        <v>0.9803788338908485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9820862634255054</v>
+      </c>
+      <c r="N17">
+        <v>0.9907635393473175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9600238451699943</v>
+        <v>0.9624100319937456</v>
       </c>
       <c r="D18">
-        <v>0.987679968593175</v>
+        <v>0.989476723987139</v>
       </c>
       <c r="E18">
-        <v>0.9725459366721011</v>
+        <v>0.9745656226742569</v>
       </c>
       <c r="F18">
-        <v>0.9680241220042491</v>
+        <v>0.9697578818660226</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030548151530319</v>
+        <v>1.031500304711638</v>
       </c>
       <c r="J18">
-        <v>0.9886870755901184</v>
+        <v>0.9909724227021534</v>
       </c>
       <c r="K18">
-        <v>1.0017148053641</v>
+        <v>1.003479609327032</v>
       </c>
       <c r="L18">
-        <v>0.9868560100362758</v>
+        <v>0.9888383205920345</v>
       </c>
       <c r="M18">
-        <v>0.9824186126396777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9841198836610904</v>
+      </c>
+      <c r="N18">
+        <v>0.9923797172085161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9607458065442797</v>
+        <v>0.9631298388528926</v>
       </c>
       <c r="D19">
-        <v>0.9882130144655189</v>
+        <v>0.9900084397881677</v>
       </c>
       <c r="E19">
-        <v>0.9731637760115541</v>
+        <v>0.9751818315819597</v>
       </c>
       <c r="F19">
-        <v>0.9687965755337768</v>
+        <v>0.9705279928179964</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030807042738165</v>
+        <v>1.031758529261945</v>
       </c>
       <c r="J19">
-        <v>0.9892345931073879</v>
+        <v>0.9915186859695899</v>
       </c>
       <c r="K19">
-        <v>1.002172701677359</v>
+        <v>1.003936415554605</v>
       </c>
       <c r="L19">
-        <v>0.9873952638012313</v>
+        <v>0.9893762374905033</v>
       </c>
       <c r="M19">
-        <v>0.9831090010244777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9848082161507582</v>
+      </c>
+      <c r="N19">
+        <v>0.9929267562324495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574961558754331</v>
+        <v>0.9598900112522131</v>
       </c>
       <c r="D20">
-        <v>0.9858142502168009</v>
+        <v>0.9876157436016549</v>
       </c>
       <c r="E20">
-        <v>0.9703835116648876</v>
+        <v>0.9724090029233927</v>
       </c>
       <c r="F20">
-        <v>0.9653198043152942</v>
+        <v>0.96706189257986</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029640548930703</v>
+        <v>1.030595081742566</v>
       </c>
       <c r="J20">
-        <v>0.9867699043676812</v>
+        <v>0.9890597344221883</v>
       </c>
       <c r="K20">
-        <v>1.00011121119356</v>
+        <v>1.001879907700518</v>
       </c>
       <c r="L20">
-        <v>0.984967919882245</v>
+        <v>0.9869549999858449</v>
       </c>
       <c r="M20">
-        <v>0.9800011637985411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9817097475326751</v>
+      </c>
+      <c r="N20">
+        <v>0.9904643126918052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9465416112877854</v>
+        <v>0.9489710383248079</v>
       </c>
       <c r="D21">
-        <v>0.9777391718963111</v>
+        <v>0.9795627090411603</v>
       </c>
       <c r="E21">
-        <v>0.9610250568512607</v>
+        <v>0.9630775117018262</v>
       </c>
       <c r="F21">
-        <v>0.9536019591038845</v>
+        <v>0.9553825127715888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025687500982969</v>
+        <v>1.026653191065271</v>
       </c>
       <c r="J21">
-        <v>0.9784578583262548</v>
+        <v>0.9807688215654631</v>
       </c>
       <c r="K21">
-        <v>0.9931549222215202</v>
+        <v>0.994941899888647</v>
       </c>
       <c r="L21">
-        <v>0.9767844560738471</v>
+        <v>0.9787938622075117</v>
       </c>
       <c r="M21">
-        <v>0.9695191040186034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.971261523582108</v>
+      </c>
+      <c r="N21">
+        <v>0.9821616257878422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393242726249366</v>
+        <v>0.9417793321487418</v>
       </c>
       <c r="D22">
-        <v>0.972429242982774</v>
+        <v>0.9742687159234541</v>
       </c>
       <c r="E22">
-        <v>0.9548711784994199</v>
+        <v>0.9569430901012704</v>
       </c>
       <c r="F22">
-        <v>0.9458829586547272</v>
+        <v>0.9476910937098922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023067634863775</v>
+        <v>1.024041462113214</v>
       </c>
       <c r="J22">
-        <v>0.9729795467832292</v>
+        <v>0.9753060294946615</v>
       </c>
       <c r="K22">
-        <v>0.9885674085434422</v>
+        <v>0.9903677490471916</v>
       </c>
       <c r="L22">
-        <v>0.9713929824393625</v>
+        <v>0.973418647861238</v>
       </c>
       <c r="M22">
-        <v>0.9626085194606983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9643752506127593</v>
+      </c>
+      <c r="N22">
+        <v>0.9766910759257095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431837665926147</v>
+        <v>0.9456248932038058</v>
       </c>
       <c r="D23">
-        <v>0.9752676689257023</v>
+        <v>0.9770984753275983</v>
       </c>
       <c r="E23">
-        <v>0.95816079157137</v>
+        <v>0.960222124861873</v>
       </c>
       <c r="F23">
-        <v>0.9500106424270361</v>
+        <v>0.9518037973164314</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024470008557511</v>
+        <v>1.025439404027271</v>
       </c>
       <c r="J23">
-        <v>0.975909217839346</v>
+        <v>0.9782272377201559</v>
       </c>
       <c r="K23">
-        <v>0.9910209353576146</v>
+        <v>0.9928139949710686</v>
       </c>
       <c r="L23">
-        <v>0.9742760160445231</v>
+        <v>0.9762928277427075</v>
       </c>
       <c r="M23">
-        <v>0.9663044158390743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9680579383219784</v>
+      </c>
+      <c r="N23">
+        <v>0.9796164326019511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9576746750028269</v>
+        <v>0.9600679823385058</v>
       </c>
       <c r="D24">
-        <v>0.9859459888019521</v>
+        <v>0.9877471433884062</v>
       </c>
       <c r="E24">
-        <v>0.9705361970644338</v>
+        <v>0.9725612733412624</v>
       </c>
       <c r="F24">
-        <v>0.9655107904941901</v>
+        <v>0.9672522840380883</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029704708309036</v>
+        <v>1.030659070717549</v>
       </c>
       <c r="J24">
-        <v>0.9869053168427663</v>
+        <v>0.9891948255757086</v>
       </c>
       <c r="K24">
-        <v>1.000224487113908</v>
+        <v>1.001992904801958</v>
       </c>
       <c r="L24">
-        <v>0.9851012709899238</v>
+        <v>0.9870880096664557</v>
       </c>
       <c r="M24">
-        <v>0.9801719124271722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9818799737928982</v>
+      </c>
+      <c r="N24">
+        <v>0.9905995956902582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9732461087177144</v>
+        <v>0.9755952647372345</v>
       </c>
       <c r="D25">
-        <v>0.9974525360985755</v>
+        <v>0.9992265124275933</v>
       </c>
       <c r="E25">
-        <v>0.9838755058146336</v>
+        <v>0.9858672123749581</v>
       </c>
       <c r="F25">
-        <v>0.9821748940307959</v>
+        <v>0.9838681976534275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035263372484412</v>
+        <v>1.036204206605412</v>
       </c>
       <c r="J25">
-        <v>0.9987086562012764</v>
+        <v>1.000972814086096</v>
       </c>
       <c r="K25">
-        <v>1.010090527304121</v>
+        <v>1.01183684767283</v>
       </c>
       <c r="L25">
-        <v>0.9967293997300518</v>
+        <v>0.9986889565278455</v>
       </c>
       <c r="M25">
-        <v>0.9950563714634084</v>
+        <v>0.9967222098433253</v>
+      </c>
+      <c r="N25">
+        <v>1.002394310295284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9871548396872671</v>
+        <v>1.005722873495705</v>
       </c>
       <c r="D2">
-        <v>1.007788980067936</v>
+        <v>1.026705419885724</v>
       </c>
       <c r="E2">
-        <v>0.9957992837117932</v>
+        <v>1.010763406857464</v>
       </c>
       <c r="F2">
-        <v>0.9962471365519401</v>
+        <v>1.027481354701403</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040275803711456</v>
+        <v>1.049495144651049</v>
       </c>
       <c r="J2">
-        <v>1.00972665467613</v>
+        <v>1.027733751433339</v>
       </c>
       <c r="K2">
-        <v>1.019140858176275</v>
+        <v>1.037804832453908</v>
       </c>
       <c r="L2">
-        <v>1.007317453081554</v>
+        <v>1.022074799607327</v>
       </c>
       <c r="M2">
-        <v>1.007759003518105</v>
+        <v>1.038570659947538</v>
       </c>
       <c r="N2">
-        <v>1.011160582343036</v>
+        <v>1.029193251243083</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9951376962274335</v>
+        <v>1.012700071001324</v>
       </c>
       <c r="D3">
-        <v>1.013708068280528</v>
+        <v>1.032363064126111</v>
       </c>
       <c r="E3">
-        <v>1.002670886888834</v>
+        <v>1.016575135040075</v>
       </c>
       <c r="F3">
-        <v>1.004802016597421</v>
+        <v>1.034106446337483</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043053311824061</v>
+        <v>1.052072894171151</v>
       </c>
       <c r="J3">
-        <v>1.015761795944874</v>
+        <v>1.032850406527418</v>
       </c>
       <c r="K3">
-        <v>1.024168505595664</v>
+        <v>1.042597944805651</v>
       </c>
       <c r="L3">
-        <v>1.013269706908589</v>
+        <v>1.027000237189095</v>
       </c>
       <c r="M3">
-        <v>1.015373821243566</v>
+        <v>1.044320762777226</v>
       </c>
       <c r="N3">
-        <v>1.017204294204622</v>
+        <v>1.034317172574284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000132183548983</v>
+        <v>1.017085391755103</v>
       </c>
       <c r="D4">
-        <v>1.017413123640639</v>
+        <v>1.035921180634743</v>
       </c>
       <c r="E4">
-        <v>1.006975284881238</v>
+        <v>1.020233360686347</v>
       </c>
       <c r="F4">
-        <v>1.010157530984281</v>
+        <v>1.038277027915103</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044774734767249</v>
+        <v>1.05367889657041</v>
       </c>
       <c r="J4">
-        <v>1.019532508662171</v>
+        <v>1.036061923705508</v>
       </c>
       <c r="K4">
-        <v>1.02730583381311</v>
+        <v>1.045604568857961</v>
       </c>
       <c r="L4">
-        <v>1.016990247069024</v>
+        <v>1.030093569212758</v>
       </c>
       <c r="M4">
-        <v>1.020134890067568</v>
+        <v>1.047934430071159</v>
       </c>
       <c r="N4">
-        <v>1.020980361766484</v>
+        <v>1.037533250475133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002193455078038</v>
+        <v>1.018899640812908</v>
       </c>
       <c r="D5">
-        <v>1.018942523414387</v>
+        <v>1.037393634463431</v>
       </c>
       <c r="E5">
-        <v>1.008752897904209</v>
+        <v>1.021748022921654</v>
       </c>
       <c r="F5">
-        <v>1.012368592212584</v>
+        <v>1.040003936274892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045481193708716</v>
+        <v>1.054339854478852</v>
       </c>
       <c r="J5">
-        <v>1.021087403666749</v>
+        <v>1.037389441019736</v>
       </c>
       <c r="K5">
-        <v>1.028598573577824</v>
+        <v>1.046846937437091</v>
       </c>
       <c r="L5">
-        <v>1.018524838879533</v>
+        <v>1.031372664495993</v>
       </c>
       <c r="M5">
-        <v>1.022099080972898</v>
+        <v>1.049429267947075</v>
       </c>
       <c r="N5">
-        <v>1.022537464900318</v>
+        <v>1.038862653016216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002537367945566</v>
+        <v>1.019202585922917</v>
       </c>
       <c r="D6">
-        <v>1.019197709371853</v>
+        <v>1.037639528810846</v>
       </c>
       <c r="E6">
-        <v>1.009049548741403</v>
+        <v>1.022001012130431</v>
       </c>
       <c r="F6">
-        <v>1.01273754425052</v>
+        <v>1.0402923831715</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045598826262341</v>
+        <v>1.054450016643156</v>
       </c>
       <c r="J6">
-        <v>1.02134675094546</v>
+        <v>1.037611043765494</v>
       </c>
       <c r="K6">
-        <v>1.028814136759999</v>
+        <v>1.047054299097334</v>
       </c>
       <c r="L6">
-        <v>1.018780822382298</v>
+        <v>1.031586209256538</v>
       </c>
       <c r="M6">
-        <v>1.022426752765631</v>
+        <v>1.04967886531329</v>
       </c>
       <c r="N6">
-        <v>1.022797180481912</v>
+        <v>1.039084570463291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000159874139342</v>
+        <v>1.017109747055662</v>
       </c>
       <c r="D7">
-        <v>1.017433668230656</v>
+        <v>1.035940945948963</v>
       </c>
       <c r="E7">
-        <v>1.006999160446568</v>
+        <v>1.020253689478035</v>
       </c>
       <c r="F7">
-        <v>1.010187230633646</v>
+        <v>1.038300204880417</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0447842410424</v>
+        <v>1.053687783341434</v>
       </c>
       <c r="J7">
-        <v>1.019553402011357</v>
+        <v>1.036079749398951</v>
       </c>
       <c r="K7">
-        <v>1.02732320844027</v>
+        <v>1.04562125300674</v>
       </c>
       <c r="L7">
-        <v>1.017010866073326</v>
+        <v>1.03011074300725</v>
       </c>
       <c r="M7">
-        <v>1.020161279446978</v>
+        <v>1.047954498223366</v>
       </c>
       <c r="N7">
-        <v>1.021001284786623</v>
+        <v>1.037551101483106</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9898896739316405</v>
+        <v>1.00810866942846</v>
       </c>
       <c r="D8">
-        <v>1.009816330179475</v>
+        <v>1.028639490376441</v>
       </c>
       <c r="E8">
-        <v>0.9981522625032312</v>
+        <v>1.01274948233562</v>
       </c>
       <c r="F8">
-        <v>0.9991772994291676</v>
+        <v>1.029745316825351</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041230756184088</v>
+        <v>1.050379535352403</v>
       </c>
       <c r="J8">
-        <v>1.011795276266785</v>
+        <v>1.029484242942537</v>
       </c>
       <c r="K8">
-        <v>1.020864954743817</v>
+        <v>1.039445007574677</v>
       </c>
       <c r="L8">
-        <v>1.009357320876637</v>
+        <v>1.023759479411783</v>
       </c>
       <c r="M8">
-        <v>1.010368426260917</v>
+        <v>1.040536896785458</v>
       </c>
       <c r="N8">
-        <v>1.013232141613624</v>
+        <v>1.030946228651008</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9703554631039666</v>
+        <v>0.9911755461267243</v>
       </c>
       <c r="D9">
-        <v>0.9953495391222312</v>
+        <v>1.014926016894672</v>
       </c>
       <c r="E9">
-        <v>0.9813724377716433</v>
+        <v>0.9986806082705002</v>
       </c>
       <c r="F9">
-        <v>0.9782597648971215</v>
+        <v>1.013708794298511</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034341790100306</v>
+        <v>1.044044116754</v>
       </c>
       <c r="J9">
-        <v>0.9970002995743602</v>
+        <v>1.017043813723338</v>
       </c>
       <c r="K9">
-        <v>1.008518520126575</v>
+        <v>1.027781484147253</v>
       </c>
       <c r="L9">
-        <v>0.9947751413989749</v>
+        <v>1.011795128016587</v>
       </c>
       <c r="M9">
-        <v>0.9917156933779612</v>
+        <v>1.026583303543711</v>
       </c>
       <c r="N9">
-        <v>0.9984161543572884</v>
+        <v>1.018488132595381</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9561611102591503</v>
+        <v>0.9790390950368173</v>
       </c>
       <c r="D10">
-        <v>0.9848636262135201</v>
+        <v>1.005119772236258</v>
       </c>
       <c r="E10">
-        <v>0.9692198645326086</v>
+        <v>0.9886367568703669</v>
       </c>
       <c r="F10">
-        <v>0.9630729778695462</v>
+        <v>1.002260303595752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029252360115488</v>
+        <v>1.03943163931206</v>
       </c>
       <c r="J10">
-        <v>0.9862288966397007</v>
+        <v>1.0081097577299</v>
       </c>
       <c r="K10">
-        <v>0.9995116583814775</v>
+        <v>1.019397198830311</v>
       </c>
       <c r="L10">
-        <v>0.9841680286691988</v>
+        <v>1.003214254539645</v>
       </c>
       <c r="M10">
-        <v>0.9781425812419784</v>
+        <v>1.016588867136181</v>
       </c>
       <c r="N10">
-        <v>0.9876294547949649</v>
+        <v>1.009541389217682</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9496811333809995</v>
+        <v>0.9735497996225346</v>
       </c>
       <c r="D11">
-        <v>0.9800858799440461</v>
+        <v>1.000691682294574</v>
       </c>
       <c r="E11">
-        <v>0.9636837219805</v>
+        <v>0.9841051186947462</v>
       </c>
       <c r="F11">
-        <v>0.9561419824129208</v>
+        <v>0.997094578537434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026910444638329</v>
+        <v>1.037329512284866</v>
       </c>
       <c r="J11">
-        <v>0.9813081401191283</v>
+        <v>1.0040658932947</v>
       </c>
       <c r="K11">
-        <v>0.9953933793596946</v>
+        <v>1.015600566278533</v>
       </c>
       <c r="L11">
-        <v>0.9793246212019332</v>
+        <v>0.9993331461545022</v>
       </c>
       <c r="M11">
-        <v>0.9719412643171653</v>
+        <v>1.012071495640521</v>
       </c>
       <c r="N11">
-        <v>0.9827017102357141</v>
+        <v>1.005491782031146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9472183574069423</v>
+        <v>0.971472418594176</v>
       </c>
       <c r="D12">
-        <v>0.9782717414623999</v>
+        <v>0.9990171772890583</v>
       </c>
       <c r="E12">
-        <v>0.961581632395844</v>
+        <v>0.9823920023348458</v>
       </c>
       <c r="F12">
-        <v>0.9535079957595566</v>
+        <v>0.9951416717773276</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026017733152953</v>
+        <v>1.036531694315768</v>
       </c>
       <c r="J12">
-        <v>0.9794375972800465</v>
+        <v>1.002535186014054</v>
       </c>
       <c r="K12">
-        <v>0.9938274054476308</v>
+        <v>1.014163230884737</v>
       </c>
       <c r="L12">
-        <v>0.9774838335000389</v>
+        <v>0.9978645016090338</v>
       </c>
       <c r="M12">
-        <v>0.9695836121599519</v>
+        <v>1.010362545369007</v>
       </c>
       <c r="N12">
-        <v>0.9808285110112469</v>
+        <v>1.003958900970587</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9477492587757416</v>
+        <v>0.9719198185713677</v>
       </c>
       <c r="D13">
-        <v>0.978662734494665</v>
+        <v>0.9993777504676882</v>
       </c>
       <c r="E13">
-        <v>0.9620346877858124</v>
+        <v>0.9827608653822971</v>
       </c>
       <c r="F13">
-        <v>0.9540757977907324</v>
+        <v>0.9955621701119248</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026210292174543</v>
+        <v>1.036703619515819</v>
       </c>
       <c r="J13">
-        <v>0.9798408445237319</v>
+        <v>1.002864863655079</v>
       </c>
       <c r="K13">
-        <v>0.994165014922552</v>
+        <v>1.01447280749567</v>
       </c>
       <c r="L13">
-        <v>0.9778806501852901</v>
+        <v>0.9981807915164791</v>
       </c>
       <c r="M13">
-        <v>0.9700918880361462</v>
+        <v>1.010730567142966</v>
       </c>
       <c r="N13">
-        <v>0.9812323309122712</v>
+        <v>1.004289046791677</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9494787345157878</v>
+        <v>0.9733788864322737</v>
       </c>
       <c r="D14">
-        <v>0.9799367521548592</v>
+        <v>1.000553888199814</v>
       </c>
       <c r="E14">
-        <v>0.9635109242084511</v>
+        <v>0.9839641363197762</v>
       </c>
       <c r="F14">
-        <v>0.9559255094579646</v>
+        <v>0.9969338643049305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026837131450028</v>
+        <v>1.037263918768908</v>
       </c>
       <c r="J14">
-        <v>0.9811544193006682</v>
+        <v>1.00393996297604</v>
       </c>
       <c r="K14">
-        <v>0.9952646972551331</v>
+        <v>1.015482321713765</v>
       </c>
       <c r="L14">
-        <v>0.9791733384762956</v>
+        <v>0.9992123123366992</v>
       </c>
       <c r="M14">
-        <v>0.9717475209949474</v>
+        <v>1.011930881140836</v>
       </c>
       <c r="N14">
-        <v>0.9825477711160597</v>
+        <v>1.005365672876989</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9505367386695688</v>
+        <v>0.9742726725404917</v>
       </c>
       <c r="D15">
-        <v>0.9807163615911606</v>
+        <v>1.001274531638646</v>
       </c>
       <c r="E15">
-        <v>0.964414275288883</v>
+        <v>0.9847014761023093</v>
       </c>
       <c r="F15">
-        <v>0.9570570909911222</v>
+        <v>0.997774398372401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027220256683689</v>
+        <v>1.037606846176027</v>
       </c>
       <c r="J15">
-        <v>0.9819579538116818</v>
+        <v>1.004598499274121</v>
       </c>
       <c r="K15">
-        <v>0.9959373295387428</v>
+        <v>1.016100657939602</v>
       </c>
       <c r="L15">
-        <v>0.979964142843192</v>
+        <v>0.9998442157784089</v>
       </c>
       <c r="M15">
-        <v>0.9727602477838431</v>
+        <v>1.012666246900018</v>
       </c>
       <c r="N15">
-        <v>0.9833524467382462</v>
+        <v>1.006025144372148</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9565836688022535</v>
+        <v>0.9793982014312389</v>
       </c>
       <c r="D16">
-        <v>0.985175397449757</v>
+        <v>1.005409620180123</v>
       </c>
       <c r="E16">
-        <v>0.9695811345625099</v>
+        <v>0.9889334589344544</v>
       </c>
       <c r="F16">
-        <v>0.9635249811799005</v>
+        <v>1.002598511868976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029404705654193</v>
+        <v>1.039568838515204</v>
       </c>
       <c r="J16">
-        <v>0.9865497202639089</v>
+        <v>1.008374251917467</v>
       </c>
       <c r="K16">
-        <v>0.9997800925979471</v>
+        <v>1.01964549161297</v>
       </c>
       <c r="L16">
-        <v>0.9844838571883281</v>
+        <v>1.003468165013656</v>
       </c>
       <c r="M16">
-        <v>0.9785468632324225</v>
+        <v>1.016884467041015</v>
       </c>
       <c r="N16">
-        <v>0.9879507340255181</v>
+        <v>1.009806259017334</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9602836608780505</v>
+        <v>0.9825484649017201</v>
       </c>
       <c r="D17">
-        <v>0.9879063891399054</v>
+        <v>1.007953152286434</v>
       </c>
       <c r="E17">
-        <v>0.97274581330751</v>
+        <v>0.9915375598922089</v>
       </c>
       <c r="F17">
-        <v>0.9674830158872116</v>
+        <v>1.005566863931175</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03073660531844</v>
+        <v>1.04077063530655</v>
       </c>
       <c r="J17">
-        <v>0.9893585367441305</v>
+        <v>1.010694202148694</v>
       </c>
       <c r="K17">
-        <v>1.002129838764755</v>
+        <v>1.02182315627313</v>
       </c>
       <c r="L17">
-        <v>0.9872491998574108</v>
+        <v>1.005695611313011</v>
       </c>
       <c r="M17">
-        <v>0.9820862634255054</v>
+        <v>1.019477984859176</v>
       </c>
       <c r="N17">
-        <v>0.9907635393473175</v>
+        <v>1.012129503843991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624100319937456</v>
+        <v>0.9843636087907941</v>
       </c>
       <c r="D18">
-        <v>0.989476723987139</v>
+        <v>1.009419374304906</v>
       </c>
       <c r="E18">
-        <v>0.9745656226742569</v>
+        <v>0.993039050379438</v>
       </c>
       <c r="F18">
-        <v>0.9697578818660226</v>
+        <v>1.007278347691912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031500304711638</v>
+        <v>1.041461593292819</v>
       </c>
       <c r="J18">
-        <v>0.9909724227021534</v>
+        <v>1.012030639026051</v>
       </c>
       <c r="K18">
-        <v>1.003479609327032</v>
+        <v>1.023077474030554</v>
       </c>
       <c r="L18">
-        <v>0.9888383205920345</v>
+        <v>1.00697903049191</v>
       </c>
       <c r="M18">
-        <v>0.9841198836610904</v>
+        <v>1.020972619010863</v>
       </c>
       <c r="N18">
-        <v>0.9923797172085161</v>
+        <v>1.013467838615005</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631298388528926</v>
+        <v>0.9849788265891054</v>
       </c>
       <c r="D19">
-        <v>0.9900084397881677</v>
+        <v>1.009916438398514</v>
       </c>
       <c r="E19">
-        <v>0.9751818315819597</v>
+        <v>0.9935481312753548</v>
       </c>
       <c r="F19">
-        <v>0.9705279928179964</v>
+        <v>1.007858622877137</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031758529261945</v>
+        <v>1.041695526000227</v>
       </c>
       <c r="J19">
-        <v>0.9915186859695899</v>
+        <v>1.012483553293374</v>
       </c>
       <c r="K19">
-        <v>1.003936415554605</v>
+        <v>1.023502531454299</v>
       </c>
       <c r="L19">
-        <v>0.9893762374905033</v>
+        <v>1.00741402251798</v>
       </c>
       <c r="M19">
-        <v>0.9848082161507582</v>
+        <v>1.021479247909756</v>
       </c>
       <c r="N19">
-        <v>0.9929267562324495</v>
+        <v>1.013921396072538</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9598900112522131</v>
+        <v>0.982212805473065</v>
       </c>
       <c r="D20">
-        <v>0.9876157436016549</v>
+        <v>1.007682069076812</v>
       </c>
       <c r="E20">
-        <v>0.9724090029233927</v>
+        <v>0.9912599847932425</v>
       </c>
       <c r="F20">
-        <v>0.96706189257986</v>
+        <v>1.005250466004051</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030595081742566</v>
+        <v>1.04064273975823</v>
       </c>
       <c r="J20">
-        <v>0.9890597344221883</v>
+        <v>1.010447041721919</v>
       </c>
       <c r="K20">
-        <v>1.001879907700518</v>
+        <v>1.021591170284988</v>
       </c>
       <c r="L20">
-        <v>0.9869549999858449</v>
+        <v>1.005458277734887</v>
       </c>
       <c r="M20">
-        <v>0.9817097475326751</v>
+        <v>1.019201616336115</v>
       </c>
       <c r="N20">
-        <v>0.9904643126918052</v>
+        <v>1.01188199242106</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9489710383248079</v>
+        <v>0.972950315729988</v>
       </c>
       <c r="D21">
-        <v>0.9795627090411603</v>
+        <v>1.000208385856102</v>
       </c>
       <c r="E21">
-        <v>0.9630775117018262</v>
+        <v>0.9836106484631377</v>
       </c>
       <c r="F21">
-        <v>0.9553825127715888</v>
+        <v>0.9965309009140363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026653191065271</v>
+        <v>1.037099404418207</v>
       </c>
       <c r="J21">
-        <v>0.9807688215654631</v>
+        <v>1.003624183337817</v>
       </c>
       <c r="K21">
-        <v>0.994941899888647</v>
+        <v>1.015185811379008</v>
       </c>
       <c r="L21">
-        <v>0.9787938622075117</v>
+        <v>0.9989093199498946</v>
       </c>
       <c r="M21">
-        <v>0.971261523582108</v>
+        <v>1.011578295850796</v>
       </c>
       <c r="N21">
-        <v>0.9821616257878422</v>
+        <v>1.00504944479546</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9417793321487418</v>
+        <v>0.9669024626309244</v>
       </c>
       <c r="D22">
-        <v>0.9742687159234541</v>
+        <v>0.9953360561925916</v>
       </c>
       <c r="E22">
-        <v>0.9569430901012704</v>
+        <v>0.978626987659287</v>
       </c>
       <c r="F22">
-        <v>0.9476910937098922</v>
+        <v>0.9908494620244314</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024041462113214</v>
+        <v>1.034772516214392</v>
       </c>
       <c r="J22">
-        <v>0.9753060294946615</v>
+        <v>0.9991673504468692</v>
       </c>
       <c r="K22">
-        <v>0.9903677490471916</v>
+        <v>1.011000476400894</v>
       </c>
       <c r="L22">
-        <v>0.973418647861238</v>
+        <v>0.9946340805971366</v>
       </c>
       <c r="M22">
-        <v>0.9643752506127593</v>
+        <v>1.006604398787298</v>
       </c>
       <c r="N22">
-        <v>0.9766910759257095</v>
+        <v>1.000586282690601</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9456248932038058</v>
+        <v>0.9701309834705423</v>
       </c>
       <c r="D23">
-        <v>0.9770984753275983</v>
+        <v>0.9979362754569659</v>
       </c>
       <c r="E23">
-        <v>0.960222124861873</v>
+        <v>0.9812863283594513</v>
       </c>
       <c r="F23">
-        <v>0.9518037973164314</v>
+        <v>0.9938812050534466</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025439404027271</v>
+        <v>1.036015886527549</v>
       </c>
       <c r="J23">
-        <v>0.9782272377201559</v>
+        <v>1.001546676481443</v>
       </c>
       <c r="K23">
-        <v>0.9928139949710686</v>
+        <v>1.013234964010786</v>
       </c>
       <c r="L23">
-        <v>0.9762928277427075</v>
+        <v>0.9969162025032142</v>
       </c>
       <c r="M23">
-        <v>0.9680579383219784</v>
+        <v>1.009259211507238</v>
       </c>
       <c r="N23">
-        <v>0.9796164326019511</v>
+        <v>1.002968987641056</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9600679823385058</v>
+        <v>0.9823645443535572</v>
       </c>
       <c r="D24">
-        <v>0.9877471433884062</v>
+        <v>1.007804613434953</v>
       </c>
       <c r="E24">
-        <v>0.9725612733412624</v>
+        <v>0.9913854627395112</v>
       </c>
       <c r="F24">
-        <v>0.9672522840380883</v>
+        <v>1.005393493914987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030659070717549</v>
+        <v>1.040700561154597</v>
       </c>
       <c r="J24">
-        <v>0.9891948255757086</v>
+        <v>1.010558774475306</v>
       </c>
       <c r="K24">
-        <v>1.001992904801958</v>
+        <v>1.021696043674767</v>
       </c>
       <c r="L24">
-        <v>0.9870880096664557</v>
+        <v>1.005565567268589</v>
       </c>
       <c r="M24">
-        <v>0.9818799737928982</v>
+        <v>1.0193265511898</v>
       </c>
       <c r="N24">
-        <v>0.9905995956902582</v>
+        <v>1.011993883847772</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9755952647372345</v>
+        <v>0.9956924315535925</v>
       </c>
       <c r="D25">
-        <v>0.9992265124275933</v>
+        <v>1.018580784145871</v>
       </c>
       <c r="E25">
-        <v>0.9858672123749581</v>
+        <v>1.002427219397525</v>
       </c>
       <c r="F25">
-        <v>0.9838681976534275</v>
+        <v>1.01797928092321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036204206605412</v>
+        <v>1.045746622706223</v>
       </c>
       <c r="J25">
-        <v>1.000972814086096</v>
+        <v>1.020365637284388</v>
       </c>
       <c r="K25">
-        <v>1.01183684767283</v>
+        <v>1.030897345753868</v>
       </c>
       <c r="L25">
-        <v>0.9986889565278455</v>
+        <v>1.014987972402892</v>
       </c>
       <c r="M25">
-        <v>0.9967222098433253</v>
+        <v>1.0303047587927</v>
       </c>
       <c r="N25">
-        <v>1.002394310295284</v>
+        <v>1.021814673526906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005722873495705</v>
+        <v>0.9871116969080571</v>
       </c>
       <c r="D2">
-        <v>1.026705419885724</v>
+        <v>1.007854708706465</v>
       </c>
       <c r="E2">
-        <v>1.010763406857464</v>
-      </c>
-      <c r="F2">
-        <v>1.027481354701403</v>
+        <v>0.9954187050763038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049495144651049</v>
+        <v>1.040502546370156</v>
       </c>
       <c r="J2">
-        <v>1.027733751433339</v>
+        <v>1.009684849174997</v>
       </c>
       <c r="K2">
-        <v>1.037804832453908</v>
+        <v>1.019205688921624</v>
       </c>
       <c r="L2">
-        <v>1.022074799607327</v>
-      </c>
-      <c r="M2">
-        <v>1.038570659947538</v>
+        <v>1.006942235765951</v>
       </c>
       <c r="N2">
-        <v>1.029193251243083</v>
+        <v>1.007406095836981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012700071001324</v>
+        <v>0.9908615332881553</v>
       </c>
       <c r="D3">
-        <v>1.032363064126111</v>
+        <v>1.010482318216041</v>
       </c>
       <c r="E3">
-        <v>1.016575135040075</v>
-      </c>
-      <c r="F3">
-        <v>1.034106446337483</v>
+        <v>0.9983356986390575</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052072894171151</v>
+        <v>1.041333922798868</v>
       </c>
       <c r="J3">
-        <v>1.032850406527418</v>
+        <v>1.011604460676615</v>
       </c>
       <c r="K3">
-        <v>1.042597944805651</v>
+        <v>1.020982809952441</v>
       </c>
       <c r="L3">
-        <v>1.027000237189095</v>
-      </c>
-      <c r="M3">
-        <v>1.044320762777226</v>
+        <v>1.008989918897792</v>
       </c>
       <c r="N3">
-        <v>1.034317172574284</v>
+        <v>1.008036713688081</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017085391755103</v>
+        <v>0.9932406489667919</v>
       </c>
       <c r="D4">
-        <v>1.035921180634743</v>
+        <v>1.012148142928464</v>
       </c>
       <c r="E4">
-        <v>1.020233360686347</v>
-      </c>
-      <c r="F4">
-        <v>1.038277027915103</v>
+        <v>1.000192401370296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05367889657041</v>
+        <v>1.041845292163269</v>
       </c>
       <c r="J4">
-        <v>1.036061923705508</v>
+        <v>1.012818854429219</v>
       </c>
       <c r="K4">
-        <v>1.045604568857961</v>
+        <v>1.022102128647085</v>
       </c>
       <c r="L4">
-        <v>1.030093569212758</v>
-      </c>
-      <c r="M4">
-        <v>1.047934430071159</v>
+        <v>1.010288504831579</v>
       </c>
       <c r="N4">
-        <v>1.037533250475133</v>
+        <v>1.008435669442954</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018899640812908</v>
+        <v>0.9942298381130297</v>
       </c>
       <c r="D5">
-        <v>1.037393634463431</v>
+        <v>1.012840394647175</v>
       </c>
       <c r="E5">
-        <v>1.021748022921654</v>
-      </c>
-      <c r="F5">
-        <v>1.040003936274892</v>
+        <v>1.000965784207699</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054339854478852</v>
+        <v>1.042053984024465</v>
       </c>
       <c r="J5">
-        <v>1.037389441019736</v>
+        <v>1.013322897825885</v>
       </c>
       <c r="K5">
-        <v>1.046846937437091</v>
+        <v>1.022565501346101</v>
       </c>
       <c r="L5">
-        <v>1.031372664495993</v>
-      </c>
-      <c r="M5">
-        <v>1.049429267947075</v>
+        <v>1.010828259061658</v>
       </c>
       <c r="N5">
-        <v>1.038862653016216</v>
+        <v>1.008601261298038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019202585922917</v>
+        <v>0.9943952920583424</v>
       </c>
       <c r="D6">
-        <v>1.037639528810846</v>
+        <v>1.012956159082698</v>
       </c>
       <c r="E6">
-        <v>1.022001012130431</v>
-      </c>
-      <c r="F6">
-        <v>1.0402923831715</v>
+        <v>1.00109522337799</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054450016643156</v>
+        <v>1.042088657749902</v>
       </c>
       <c r="J6">
-        <v>1.037611043765494</v>
+        <v>1.013407152700973</v>
       </c>
       <c r="K6">
-        <v>1.047054299097334</v>
+        <v>1.022642885943239</v>
       </c>
       <c r="L6">
-        <v>1.031586209256538</v>
-      </c>
-      <c r="M6">
-        <v>1.04967886531329</v>
+        <v>1.010918528506092</v>
       </c>
       <c r="N6">
-        <v>1.039084570463291</v>
+        <v>1.008628941414357</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017109747055662</v>
+        <v>0.9932539093237823</v>
       </c>
       <c r="D7">
-        <v>1.035940945948963</v>
+        <v>1.012157424272994</v>
       </c>
       <c r="E7">
-        <v>1.020253689478035</v>
-      </c>
-      <c r="F7">
-        <v>1.038300204880417</v>
+        <v>1.000202763288503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053687783341434</v>
+        <v>1.041848105320949</v>
       </c>
       <c r="J7">
-        <v>1.036079749398951</v>
+        <v>1.012825614780567</v>
       </c>
       <c r="K7">
-        <v>1.04562125300674</v>
+        <v>1.022108348326443</v>
       </c>
       <c r="L7">
-        <v>1.03011074300725</v>
-      </c>
-      <c r="M7">
-        <v>1.047954498223366</v>
+        <v>1.010295741109151</v>
       </c>
       <c r="N7">
-        <v>1.037551101483106</v>
+        <v>1.00843789039262</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00810866942846</v>
+        <v>0.9883889631007877</v>
       </c>
       <c r="D8">
-        <v>1.028639490376441</v>
+        <v>1.008749956985679</v>
       </c>
       <c r="E8">
-        <v>1.01274948233562</v>
-      </c>
-      <c r="F8">
-        <v>1.029745316825351</v>
+        <v>0.9964110117435135</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050379535352403</v>
+        <v>1.040789066662065</v>
       </c>
       <c r="J8">
-        <v>1.029484242942537</v>
+        <v>1.01033942319693</v>
       </c>
       <c r="K8">
-        <v>1.039445007574677</v>
+        <v>1.019812694773019</v>
       </c>
       <c r="L8">
-        <v>1.023759479411783</v>
-      </c>
-      <c r="M8">
-        <v>1.040536896785458</v>
+        <v>1.007639818634487</v>
       </c>
       <c r="N8">
-        <v>1.030946228651008</v>
+        <v>1.007621129420604</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9911755461267243</v>
+        <v>0.9794387298289026</v>
       </c>
       <c r="D9">
-        <v>1.014926016894672</v>
+        <v>1.002473595723056</v>
       </c>
       <c r="E9">
-        <v>0.9986806082705002</v>
-      </c>
-      <c r="F9">
-        <v>1.013708794298511</v>
+        <v>0.989484465710711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044044116754</v>
+        <v>1.038715598935235</v>
       </c>
       <c r="J9">
-        <v>1.017043813723338</v>
+        <v>1.005739053421104</v>
       </c>
       <c r="K9">
-        <v>1.027781484147253</v>
+        <v>1.015526667642262</v>
       </c>
       <c r="L9">
-        <v>1.011795128016587</v>
-      </c>
-      <c r="M9">
-        <v>1.026583303543711</v>
+        <v>1.00275048564708</v>
       </c>
       <c r="N9">
-        <v>1.018488132595381</v>
+        <v>1.006109933699842</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9790390950368173</v>
+        <v>0.9731952149476707</v>
       </c>
       <c r="D10">
-        <v>1.005119772236258</v>
+        <v>0.998094126680364</v>
       </c>
       <c r="E10">
-        <v>0.9886367568703669</v>
-      </c>
-      <c r="F10">
-        <v>1.002260303595752</v>
+        <v>0.9846885227769776</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03943163931206</v>
+        <v>1.037188414221718</v>
       </c>
       <c r="J10">
-        <v>1.0081097577299</v>
+        <v>1.002514224440358</v>
       </c>
       <c r="K10">
-        <v>1.019397198830311</v>
+        <v>1.012497877733384</v>
       </c>
       <c r="L10">
-        <v>1.003214254539645</v>
-      </c>
-      <c r="M10">
-        <v>1.016588867136181</v>
+        <v>0.9993398454521945</v>
       </c>
       <c r="N10">
-        <v>1.009541389217682</v>
+        <v>1.005050703731121</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9735497996225346</v>
+        <v>0.9704206157260102</v>
       </c>
       <c r="D11">
-        <v>1.000691682294574</v>
+        <v>0.9961485117489129</v>
       </c>
       <c r="E11">
-        <v>0.9841051186947462</v>
-      </c>
-      <c r="F11">
-        <v>0.997094578537434</v>
+        <v>0.9825663323168543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037329512284866</v>
+        <v>1.036491437012603</v>
       </c>
       <c r="J11">
-        <v>1.0040658932947</v>
+        <v>1.001077891614795</v>
       </c>
       <c r="K11">
-        <v>1.015600566278533</v>
+        <v>1.011143428850956</v>
       </c>
       <c r="L11">
-        <v>0.9993331461545022</v>
-      </c>
-      <c r="M11">
-        <v>1.012071495640521</v>
+        <v>0.9978246851394579</v>
       </c>
       <c r="N11">
-        <v>1.005491782031146</v>
+        <v>1.004578957451443</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.971472418594176</v>
+        <v>0.9693788243907652</v>
       </c>
       <c r="D12">
-        <v>0.9990171772890583</v>
+        <v>0.9954181525142852</v>
       </c>
       <c r="E12">
-        <v>0.9823920023348458</v>
-      </c>
-      <c r="F12">
-        <v>0.9951416717773276</v>
+        <v>0.9817709264800193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036531694315768</v>
+        <v>1.036227063880737</v>
       </c>
       <c r="J12">
-        <v>1.002535186014054</v>
+        <v>1.000538143263598</v>
       </c>
       <c r="K12">
-        <v>1.014163230884737</v>
+        <v>1.010633663109389</v>
       </c>
       <c r="L12">
-        <v>0.9978645016090338</v>
-      </c>
-      <c r="M12">
-        <v>1.010362545369007</v>
+        <v>0.9972559029493452</v>
       </c>
       <c r="N12">
-        <v>1.003958900970587</v>
+        <v>1.004401689110824</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9719198185713677</v>
+        <v>0.969602806479167</v>
       </c>
       <c r="D13">
-        <v>0.9993777504676882</v>
+        <v>0.9955751686624248</v>
       </c>
       <c r="E13">
-        <v>0.9827608653822971</v>
-      </c>
-      <c r="F13">
-        <v>0.9955621701119248</v>
+        <v>0.9819418712356855</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036703619515819</v>
+        <v>1.036284023052275</v>
       </c>
       <c r="J13">
-        <v>1.002864863655079</v>
+        <v>1.000654206845178</v>
       </c>
       <c r="K13">
-        <v>1.01447280749567</v>
+        <v>1.010743314595587</v>
       </c>
       <c r="L13">
-        <v>0.9981807915164791</v>
-      </c>
-      <c r="M13">
-        <v>1.010730567142966</v>
+        <v>0.9973781832223247</v>
       </c>
       <c r="N13">
-        <v>1.004289046791677</v>
+        <v>1.004439807353129</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9733788864322737</v>
+        <v>0.9703347320130083</v>
       </c>
       <c r="D14">
-        <v>1.000553888199814</v>
+        <v>0.9960882981213403</v>
       </c>
       <c r="E14">
-        <v>0.9839641363197762</v>
-      </c>
-      <c r="F14">
-        <v>0.9969338643049305</v>
+        <v>0.9825007310123393</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037263918768908</v>
+        <v>1.036469696465771</v>
       </c>
       <c r="J14">
-        <v>1.00393996297604</v>
+        <v>1.001033404304312</v>
       </c>
       <c r="K14">
-        <v>1.015482321713765</v>
+        <v>1.011101428630255</v>
       </c>
       <c r="L14">
-        <v>0.9992123123366992</v>
-      </c>
-      <c r="M14">
-        <v>1.011930881140836</v>
+        <v>0.997777792851661</v>
       </c>
       <c r="N14">
-        <v>1.005365672876989</v>
+        <v>1.004564346467956</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9742726725404917</v>
+        <v>0.970784198432966</v>
       </c>
       <c r="D15">
-        <v>1.001274531638646</v>
+        <v>0.9964034293287937</v>
       </c>
       <c r="E15">
-        <v>0.9847014761023093</v>
-      </c>
-      <c r="F15">
-        <v>0.997774398372401</v>
+        <v>0.9828441091969032</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037606846176027</v>
+        <v>1.036583365427376</v>
       </c>
       <c r="J15">
-        <v>1.004598499274121</v>
+        <v>1.001266207777934</v>
       </c>
       <c r="K15">
-        <v>1.016100657939602</v>
+        <v>1.011321185134862</v>
       </c>
       <c r="L15">
-        <v>0.9998442157784089</v>
-      </c>
-      <c r="M15">
-        <v>1.012666246900018</v>
+        <v>0.9980232056055809</v>
       </c>
       <c r="N15">
-        <v>1.006025144372148</v>
+        <v>1.004640806426015</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9793982014312389</v>
+        <v>0.9733778158613507</v>
       </c>
       <c r="D16">
-        <v>1.005409620180123</v>
+        <v>0.9982221900132359</v>
       </c>
       <c r="E16">
-        <v>0.9889334589344544</v>
-      </c>
-      <c r="F16">
-        <v>1.002598511868976</v>
+        <v>0.9848283820887489</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039568838515204</v>
+        <v>1.037233908000746</v>
       </c>
       <c r="J16">
-        <v>1.008374251917467</v>
+        <v>1.002608688144001</v>
       </c>
       <c r="K16">
-        <v>1.01964549161297</v>
+        <v>1.012586845355474</v>
       </c>
       <c r="L16">
-        <v>1.003468165013656</v>
-      </c>
-      <c r="M16">
-        <v>1.016884467041015</v>
+        <v>0.9994395751233178</v>
       </c>
       <c r="N16">
-        <v>1.009806259017334</v>
+        <v>1.005081729934718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9825484649017201</v>
+        <v>0.9749853420223158</v>
       </c>
       <c r="D17">
-        <v>1.007953152286434</v>
+        <v>0.9993496734749765</v>
       </c>
       <c r="E17">
-        <v>0.9915375598922089</v>
-      </c>
-      <c r="F17">
-        <v>1.005566863931175</v>
+        <v>0.9860606774717976</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04077063530655</v>
+        <v>1.037632335658133</v>
       </c>
       <c r="J17">
-        <v>1.010694202148694</v>
+        <v>1.003439936102566</v>
       </c>
       <c r="K17">
-        <v>1.02182315627313</v>
+        <v>1.013369114887105</v>
       </c>
       <c r="L17">
-        <v>1.005695611313011</v>
-      </c>
-      <c r="M17">
-        <v>1.019477984859176</v>
+        <v>1.000317609016489</v>
       </c>
       <c r="N17">
-        <v>1.012129503843991</v>
+        <v>1.00535475361284</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9843636087907941</v>
+        <v>0.9759161582977057</v>
       </c>
       <c r="D18">
-        <v>1.009419374304906</v>
+        <v>1.000002579987576</v>
       </c>
       <c r="E18">
-        <v>0.993039050379438</v>
-      </c>
-      <c r="F18">
-        <v>1.007278347691912</v>
+        <v>0.9867750834736126</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041461593292819</v>
+        <v>1.037861296236928</v>
       </c>
       <c r="J18">
-        <v>1.012030639026051</v>
+        <v>1.003920949365227</v>
       </c>
       <c r="K18">
-        <v>1.023077474030554</v>
+        <v>1.013821268897713</v>
       </c>
       <c r="L18">
-        <v>1.00697903049191</v>
-      </c>
-      <c r="M18">
-        <v>1.020972619010863</v>
+        <v>1.00082606888788</v>
       </c>
       <c r="N18">
-        <v>1.013467838615005</v>
+        <v>1.005512745654606</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9849788265891054</v>
+        <v>0.9762323993054495</v>
       </c>
       <c r="D19">
-        <v>1.009916438398514</v>
+        <v>1.000224408900594</v>
       </c>
       <c r="E19">
-        <v>0.9935481312753548</v>
-      </c>
-      <c r="F19">
-        <v>1.007858622877137</v>
+        <v>0.9870179446407119</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041695526000227</v>
+        <v>1.037938786726233</v>
       </c>
       <c r="J19">
-        <v>1.012483553293374</v>
+        <v>1.004084317860236</v>
       </c>
       <c r="K19">
-        <v>1.023502531454299</v>
+        <v>1.013974747241309</v>
       </c>
       <c r="L19">
-        <v>1.00741402251798</v>
-      </c>
-      <c r="M19">
-        <v>1.021479247909756</v>
+        <v>1.000998822590397</v>
       </c>
       <c r="N19">
-        <v>1.013921396072538</v>
+        <v>1.005566405638592</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.982212805473065</v>
+        <v>0.9748135792781096</v>
       </c>
       <c r="D20">
-        <v>1.007682069076812</v>
+        <v>0.9992291968757394</v>
       </c>
       <c r="E20">
-        <v>0.9912599847932425</v>
-      </c>
-      <c r="F20">
-        <v>1.005250466004051</v>
+        <v>0.9859289180131853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04064273975823</v>
+        <v>1.037589944351131</v>
       </c>
       <c r="J20">
-        <v>1.010447041721919</v>
+        <v>1.003351149808646</v>
       </c>
       <c r="K20">
-        <v>1.021591170284988</v>
+        <v>1.013285613481664</v>
       </c>
       <c r="L20">
-        <v>1.005458277734887</v>
-      </c>
-      <c r="M20">
-        <v>1.019201616336115</v>
+        <v>1.000223786769836</v>
       </c>
       <c r="N20">
-        <v>1.01188199242106</v>
+        <v>1.005325591401234</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972950315729988</v>
+        <v>0.9701195109996196</v>
       </c>
       <c r="D21">
-        <v>1.000208385856102</v>
+        <v>0.9959374082785704</v>
       </c>
       <c r="E21">
-        <v>0.9836106484631377</v>
-      </c>
-      <c r="F21">
-        <v>0.9965309009140363</v>
+        <v>0.982336359979962</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037099404418207</v>
+        <v>1.036415172696328</v>
       </c>
       <c r="J21">
-        <v>1.003624183337817</v>
+        <v>1.000921913981985</v>
       </c>
       <c r="K21">
-        <v>1.015185811379008</v>
+        <v>1.010996158643997</v>
       </c>
       <c r="L21">
-        <v>0.9989093199498946</v>
-      </c>
-      <c r="M21">
-        <v>1.011578295850796</v>
+        <v>0.9976602848455098</v>
       </c>
       <c r="N21">
-        <v>1.00504944479546</v>
+        <v>1.004527729752151</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9669024626309244</v>
+        <v>0.9671032018224376</v>
       </c>
       <c r="D22">
-        <v>0.9953360561925916</v>
+        <v>0.9938232027405763</v>
       </c>
       <c r="E22">
-        <v>0.978626987659287</v>
-      </c>
-      <c r="F22">
-        <v>0.9908494620244314</v>
+        <v>0.9800361686953695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034772516214392</v>
+        <v>1.035644748040695</v>
       </c>
       <c r="J22">
-        <v>0.9991673504468692</v>
+        <v>0.9993583876545268</v>
       </c>
       <c r="K22">
-        <v>1.011000476400894</v>
+        <v>1.009518024383099</v>
       </c>
       <c r="L22">
-        <v>0.9946340805971366</v>
-      </c>
-      <c r="M22">
-        <v>1.006604398787298</v>
+        <v>0.9960137654178924</v>
       </c>
       <c r="N22">
-        <v>1.000586282690601</v>
+        <v>1.004014235455613</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9701309834705423</v>
+        <v>0.968708536082554</v>
       </c>
       <c r="D23">
-        <v>0.9979362754569659</v>
+        <v>0.9949482973487866</v>
       </c>
       <c r="E23">
-        <v>0.9812863283594513</v>
-      </c>
-      <c r="F23">
-        <v>0.9938812050534466</v>
+        <v>0.9812595702957598</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036015886527549</v>
+        <v>1.036056221602139</v>
       </c>
       <c r="J23">
-        <v>1.001546676481443</v>
+        <v>1.000190750260757</v>
       </c>
       <c r="K23">
-        <v>1.013234964010786</v>
+        <v>1.010305349019683</v>
       </c>
       <c r="L23">
-        <v>0.9969162025032142</v>
-      </c>
-      <c r="M23">
-        <v>1.009259211507238</v>
+        <v>0.9968899886087442</v>
       </c>
       <c r="N23">
-        <v>1.002968987641056</v>
+        <v>1.004287597239443</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9823645443535572</v>
+        <v>0.9748912125289739</v>
       </c>
       <c r="D24">
-        <v>1.007804613434953</v>
+        <v>0.9992836496802596</v>
       </c>
       <c r="E24">
-        <v>0.9913854627395112</v>
-      </c>
-      <c r="F24">
-        <v>1.005393493914987</v>
+        <v>0.9859884679282307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040700561154597</v>
+        <v>1.037609109766067</v>
       </c>
       <c r="J24">
-        <v>1.010558774475306</v>
+        <v>1.003391280362422</v>
       </c>
       <c r="K24">
-        <v>1.021696043674767</v>
+        <v>1.013323356922313</v>
       </c>
       <c r="L24">
-        <v>1.005565567268589</v>
-      </c>
-      <c r="M24">
-        <v>1.0193265511898</v>
+        <v>1.000266192368365</v>
       </c>
       <c r="N24">
-        <v>1.011993883847772</v>
+        <v>1.005338772431867</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9956924315535925</v>
+        <v>0.9817995950977114</v>
       </c>
       <c r="D25">
-        <v>1.018580784145871</v>
+        <v>1.004129646975358</v>
       </c>
       <c r="E25">
-        <v>1.002427219397525</v>
-      </c>
-      <c r="F25">
-        <v>1.01797928092321</v>
+        <v>0.9913055251362338</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045746622706223</v>
+        <v>1.039276750802402</v>
       </c>
       <c r="J25">
-        <v>1.020365637284388</v>
+        <v>1.006955393131243</v>
       </c>
       <c r="K25">
-        <v>1.030897345753868</v>
+        <v>1.016664191972888</v>
       </c>
       <c r="L25">
-        <v>1.014987972402892</v>
-      </c>
-      <c r="M25">
-        <v>1.0303047587927</v>
+        <v>1.004040327929044</v>
       </c>
       <c r="N25">
-        <v>1.021814673526906</v>
+        <v>1.006509478137422</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9871116969080571</v>
+        <v>1.013661030557652</v>
       </c>
       <c r="D2">
-        <v>1.007854708706465</v>
+        <v>1.019835330644441</v>
       </c>
       <c r="E2">
-        <v>0.9954187050763038</v>
+        <v>1.015557008224913</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040502546370156</v>
+        <v>1.025415332750196</v>
       </c>
       <c r="J2">
-        <v>1.009684849174997</v>
+        <v>1.018896720792565</v>
       </c>
       <c r="K2">
-        <v>1.019205688921624</v>
+        <v>1.022677400990017</v>
       </c>
       <c r="L2">
-        <v>1.006942235765951</v>
+        <v>1.018411811045556</v>
       </c>
       <c r="N2">
-        <v>1.007406095836981</v>
+        <v>1.010454810447489</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9908615332881553</v>
+        <v>1.014442800291442</v>
       </c>
       <c r="D3">
-        <v>1.010482318216041</v>
+        <v>1.020383181488358</v>
       </c>
       <c r="E3">
-        <v>0.9983356986390575</v>
+        <v>1.016214634519904</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041333922798868</v>
+        <v>1.025497789374017</v>
       </c>
       <c r="J3">
-        <v>1.011604460676615</v>
+        <v>1.019313614728725</v>
       </c>
       <c r="K3">
-        <v>1.020982809952441</v>
+        <v>1.023032071704415</v>
       </c>
       <c r="L3">
-        <v>1.008989918897792</v>
+        <v>1.01887503543619</v>
       </c>
       <c r="N3">
-        <v>1.008036713688081</v>
+        <v>1.010591710862483</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9932406489667919</v>
+        <v>1.014948865474225</v>
       </c>
       <c r="D4">
-        <v>1.012148142928464</v>
+        <v>1.020737272801257</v>
       </c>
       <c r="E4">
-        <v>1.000192401370296</v>
+        <v>1.016640763650113</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041845292163269</v>
+        <v>1.025549131156304</v>
       </c>
       <c r="J4">
-        <v>1.012818854429219</v>
+        <v>1.019582934879522</v>
       </c>
       <c r="K4">
-        <v>1.022102128647085</v>
+        <v>1.023260458189376</v>
       </c>
       <c r="L4">
-        <v>1.010288504831579</v>
+        <v>1.019174692318271</v>
       </c>
       <c r="N4">
-        <v>1.008435669442954</v>
+        <v>1.010680146969364</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9942298381130297</v>
+        <v>1.015161663175033</v>
       </c>
       <c r="D5">
-        <v>1.012840394647175</v>
+        <v>1.020886033737131</v>
       </c>
       <c r="E5">
-        <v>1.000965784207699</v>
+        <v>1.016820050202678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042053984024465</v>
+        <v>1.025570232203532</v>
       </c>
       <c r="J5">
-        <v>1.013322897825885</v>
+        <v>1.019696050731673</v>
       </c>
       <c r="K5">
-        <v>1.022565501346101</v>
+        <v>1.023356204686031</v>
       </c>
       <c r="L5">
-        <v>1.010828259061658</v>
+        <v>1.019300647317738</v>
       </c>
       <c r="N5">
-        <v>1.008601261298038</v>
+        <v>1.010717289681996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9943952920583424</v>
+        <v>1.015197395599602</v>
       </c>
       <c r="D6">
-        <v>1.012956159082698</v>
+        <v>1.020911005481954</v>
       </c>
       <c r="E6">
-        <v>1.00109522337799</v>
+        <v>1.016850161464508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042088657749902</v>
+        <v>1.025573746805007</v>
       </c>
       <c r="J6">
-        <v>1.013407152700973</v>
+        <v>1.0197150371027</v>
       </c>
       <c r="K6">
-        <v>1.022642885943239</v>
+        <v>1.02337226522854</v>
       </c>
       <c r="L6">
-        <v>1.010918528506092</v>
+        <v>1.019321794454557</v>
       </c>
       <c r="N6">
-        <v>1.008628941414357</v>
+        <v>1.010723523991773</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9932539093237823</v>
+        <v>1.014951708701672</v>
       </c>
       <c r="D7">
-        <v>1.012157424272994</v>
+        <v>1.020739260944086</v>
       </c>
       <c r="E7">
-        <v>1.000202763288503</v>
+        <v>1.016643158730899</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041848105320949</v>
+        <v>1.025549415008914</v>
       </c>
       <c r="J7">
-        <v>1.012825614780567</v>
+        <v>1.01958444675876</v>
       </c>
       <c r="K7">
-        <v>1.022108348326443</v>
+        <v>1.023261738610677</v>
       </c>
       <c r="L7">
-        <v>1.010295741109151</v>
+        <v>1.019176375418632</v>
       </c>
       <c r="N7">
-        <v>1.00843789039262</v>
+        <v>1.010680643413501</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9883889631007877</v>
+        <v>1.013925189131205</v>
       </c>
       <c r="D8">
-        <v>1.008749956985679</v>
+        <v>1.020020561940624</v>
       </c>
       <c r="E8">
-        <v>0.9964110117435135</v>
+        <v>1.015779130480726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040789066662065</v>
+        <v>1.025443615543995</v>
       </c>
       <c r="J8">
-        <v>1.01033942319693</v>
+        <v>1.019037701888826</v>
       </c>
       <c r="K8">
-        <v>1.019812694773019</v>
+        <v>1.022797492298987</v>
       </c>
       <c r="L8">
-        <v>1.007639818634487</v>
+        <v>1.01856837559704</v>
       </c>
       <c r="N8">
-        <v>1.007621129420604</v>
+        <v>1.010501106856424</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9794387298289026</v>
+        <v>1.012118005098458</v>
       </c>
       <c r="D9">
-        <v>1.002473595723056</v>
+        <v>1.018751116018757</v>
       </c>
       <c r="E9">
-        <v>0.989484465710711</v>
+        <v>1.014261292929665</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038715598935235</v>
+        <v>1.025241812318482</v>
       </c>
       <c r="J9">
-        <v>1.005739053421104</v>
+        <v>1.018070976272769</v>
       </c>
       <c r="K9">
-        <v>1.015526667642262</v>
+        <v>1.021971008005278</v>
       </c>
       <c r="L9">
-        <v>1.00275048564708</v>
+        <v>1.017496455018905</v>
       </c>
       <c r="N9">
-        <v>1.006109933699842</v>
+        <v>1.010183631363023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9731952149476707</v>
+        <v>1.010914452184691</v>
       </c>
       <c r="D10">
-        <v>0.998094126680364</v>
+        <v>1.01790292366921</v>
       </c>
       <c r="E10">
-        <v>0.9846885227769776</v>
+        <v>1.013252673597427</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037188414221718</v>
+        <v>1.025097005657123</v>
       </c>
       <c r="J10">
-        <v>1.002514224440358</v>
+        <v>1.017424365637327</v>
       </c>
       <c r="K10">
-        <v>1.012497877733384</v>
+        <v>1.021414452003011</v>
       </c>
       <c r="L10">
-        <v>0.9993398454521945</v>
+        <v>1.01678156426223</v>
       </c>
       <c r="N10">
-        <v>1.005050703731121</v>
+        <v>1.009971264076356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9704206157260102</v>
+        <v>1.010393616891236</v>
       </c>
       <c r="D11">
-        <v>0.9961485117489129</v>
+        <v>1.017535224076091</v>
       </c>
       <c r="E11">
-        <v>0.9825663323168543</v>
+        <v>1.012816731464153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036491437012603</v>
+        <v>1.02503187981917</v>
       </c>
       <c r="J11">
-        <v>1.001077891614795</v>
+        <v>1.017143889659535</v>
       </c>
       <c r="K11">
-        <v>1.011143428850956</v>
+        <v>1.021172157066827</v>
       </c>
       <c r="L11">
-        <v>0.9978246851394579</v>
+        <v>1.016471962065505</v>
       </c>
       <c r="N11">
-        <v>1.004578957451443</v>
+        <v>1.009879142679002</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9693788243907652</v>
+        <v>1.010200204054485</v>
       </c>
       <c r="D12">
-        <v>0.9954181525142852</v>
+        <v>1.017398582101054</v>
       </c>
       <c r="E12">
-        <v>0.9817709264800193</v>
+        <v>1.012654924865399</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036227063880737</v>
+        <v>1.025007326099229</v>
       </c>
       <c r="J12">
-        <v>1.000538143263598</v>
+        <v>1.0170396363228</v>
       </c>
       <c r="K12">
-        <v>1.010633663109389</v>
+        <v>1.02108196386386</v>
       </c>
       <c r="L12">
-        <v>0.9972559029493452</v>
+        <v>1.016356956081656</v>
       </c>
       <c r="N12">
-        <v>1.004401689110824</v>
+        <v>1.009844900389642</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.969602806479167</v>
+        <v>1.010241689536493</v>
       </c>
       <c r="D13">
-        <v>0.9955751686624248</v>
+        <v>1.017427895038889</v>
       </c>
       <c r="E13">
-        <v>0.9819418712356855</v>
+        <v>1.012689627389588</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036284023052275</v>
+        <v>1.025012609369301</v>
       </c>
       <c r="J13">
-        <v>1.000654206845178</v>
+        <v>1.017062002255684</v>
       </c>
       <c r="K13">
-        <v>1.010743314595587</v>
+        <v>1.021101319368608</v>
       </c>
       <c r="L13">
-        <v>0.9973781832223247</v>
+        <v>1.016381625499934</v>
       </c>
       <c r="N13">
-        <v>1.004439807353129</v>
+        <v>1.009852246568879</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9703347320130083</v>
+        <v>1.010377628324099</v>
       </c>
       <c r="D14">
-        <v>0.9960882981213403</v>
+        <v>1.017523930459775</v>
       </c>
       <c r="E14">
-        <v>0.9825007310123393</v>
+        <v>1.012803353985495</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036469696465771</v>
+        <v>1.025029857601871</v>
       </c>
       <c r="J14">
-        <v>1.001033404304312</v>
+        <v>1.017135273508099</v>
       </c>
       <c r="K14">
-        <v>1.011101428630255</v>
+        <v>1.021164705618328</v>
       </c>
       <c r="L14">
-        <v>0.997777792851661</v>
+        <v>1.016462455747382</v>
       </c>
       <c r="N14">
-        <v>1.004564346467956</v>
+        <v>1.009876312693625</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.970784198432966</v>
+        <v>1.010461391190391</v>
       </c>
       <c r="D15">
-        <v>0.9964034293287937</v>
+        <v>1.017583092903545</v>
       </c>
       <c r="E15">
-        <v>0.9828441091969032</v>
+        <v>1.012873440884179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036583365427376</v>
+        <v>1.025040436725864</v>
       </c>
       <c r="J15">
-        <v>1.001266207777934</v>
+        <v>1.017180408837953</v>
       </c>
       <c r="K15">
-        <v>1.011321185134862</v>
+        <v>1.021203734309956</v>
       </c>
       <c r="L15">
-        <v>0.9980232056055809</v>
+        <v>1.016512257188889</v>
       </c>
       <c r="N15">
-        <v>1.004640806426015</v>
+        <v>1.009891137421685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9733778158613507</v>
+        <v>1.010949025019345</v>
       </c>
       <c r="D16">
-        <v>0.9982221900132359</v>
+        <v>1.017927317872402</v>
       </c>
       <c r="E16">
-        <v>0.9848283820887489</v>
+        <v>1.013281622599607</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037233908000746</v>
+        <v>1.025101276870539</v>
       </c>
       <c r="J16">
-        <v>1.002608688144001</v>
+        <v>1.017442969718419</v>
       </c>
       <c r="K16">
-        <v>1.012586845355474</v>
+        <v>1.021430505015355</v>
       </c>
       <c r="L16">
-        <v>0.9994395751233178</v>
+        <v>1.016802110622834</v>
       </c>
       <c r="N16">
-        <v>1.005081729934718</v>
+        <v>1.00997737443584</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9749853420223158</v>
+        <v>1.011254989423166</v>
       </c>
       <c r="D17">
-        <v>0.9993496734749765</v>
+        <v>1.018143128369629</v>
       </c>
       <c r="E17">
-        <v>0.9860606774717976</v>
+        <v>1.013537878936036</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037632335658133</v>
+        <v>1.025138792152572</v>
       </c>
       <c r="J17">
-        <v>1.003439936102566</v>
+        <v>1.017607537241465</v>
       </c>
       <c r="K17">
-        <v>1.013369114887105</v>
+        <v>1.021572404709313</v>
       </c>
       <c r="L17">
-        <v>1.000317609016489</v>
+        <v>1.016983915783017</v>
       </c>
       <c r="N17">
-        <v>1.00535475361284</v>
+        <v>1.010031424813423</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9759161582977057</v>
+        <v>1.01143348317259</v>
       </c>
       <c r="D18">
-        <v>1.000002579987576</v>
+        <v>1.018268965667891</v>
       </c>
       <c r="E18">
-        <v>0.9867750834736126</v>
+        <v>1.013687425655587</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037861296236928</v>
+        <v>1.025160440270906</v>
       </c>
       <c r="J18">
-        <v>1.003920949365227</v>
+        <v>1.017703479386191</v>
       </c>
       <c r="K18">
-        <v>1.013821268897713</v>
+        <v>1.021655046618734</v>
       </c>
       <c r="L18">
-        <v>1.00082606888788</v>
+        <v>1.017089954751256</v>
       </c>
       <c r="N18">
-        <v>1.005512745654606</v>
+        <v>1.010062935535642</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9762323993054495</v>
+        <v>1.011494349941871</v>
       </c>
       <c r="D19">
-        <v>1.000224408900594</v>
+        <v>1.018311865862062</v>
       </c>
       <c r="E19">
-        <v>0.9870179446407119</v>
+        <v>1.01373843017598</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037938786726233</v>
+        <v>1.025167782012879</v>
       </c>
       <c r="J19">
-        <v>1.004084317860236</v>
+        <v>1.017736185110064</v>
       </c>
       <c r="K19">
-        <v>1.013974747241309</v>
+        <v>1.021683203990278</v>
       </c>
       <c r="L19">
-        <v>1.000998822590397</v>
+        <v>1.017126110420179</v>
       </c>
       <c r="N19">
-        <v>1.005566405638592</v>
+        <v>1.010073677157729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9748135792781096</v>
+        <v>1.01122215923331</v>
       </c>
       <c r="D20">
-        <v>0.9992291968757394</v>
+        <v>1.018119978203506</v>
       </c>
       <c r="E20">
-        <v>0.9859289180131853</v>
+        <v>1.013510377104725</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037589944351131</v>
+        <v>1.025134791304866</v>
       </c>
       <c r="J20">
-        <v>1.003351149808646</v>
+        <v>1.017589885586466</v>
       </c>
       <c r="K20">
-        <v>1.013285613481664</v>
+        <v>1.021557193213555</v>
       </c>
       <c r="L20">
-        <v>1.000223786769836</v>
+        <v>1.016964410306238</v>
       </c>
       <c r="N20">
-        <v>1.005325591401234</v>
+        <v>1.010025627365578</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9701195109996196</v>
+        <v>1.010337596383432</v>
       </c>
       <c r="D21">
-        <v>0.9959374082785704</v>
+        <v>1.017495652115669</v>
       </c>
       <c r="E21">
-        <v>0.982336359979962</v>
+        <v>1.012769860961275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036415172696328</v>
+        <v>1.02502478844191</v>
       </c>
       <c r="J21">
-        <v>1.000921913981985</v>
+        <v>1.017113698928451</v>
       </c>
       <c r="K21">
-        <v>1.010996158643997</v>
+        <v>1.021146045292182</v>
       </c>
       <c r="L21">
-        <v>0.9976602848455098</v>
+        <v>1.016438653405905</v>
       </c>
       <c r="N21">
-        <v>1.004527729752151</v>
+        <v>1.009869226486672</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9671032018224376</v>
+        <v>1.009781718599878</v>
       </c>
       <c r="D22">
-        <v>0.9938232027405763</v>
+        <v>1.017102756007106</v>
       </c>
       <c r="E22">
-        <v>0.9800361686953695</v>
+        <v>1.012304974300607</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035644748040695</v>
+        <v>1.024953525090093</v>
       </c>
       <c r="J22">
-        <v>0.9993583876545268</v>
+        <v>1.016813885208278</v>
       </c>
       <c r="K22">
-        <v>1.009518024383099</v>
+        <v>1.020886418205273</v>
       </c>
       <c r="L22">
-        <v>0.9960137654178924</v>
+        <v>1.016108055546364</v>
       </c>
       <c r="N22">
-        <v>1.004014235455613</v>
+        <v>1.009770750687525</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.968708536082554</v>
+        <v>1.010076372585484</v>
       </c>
       <c r="D23">
-        <v>0.9949482973487866</v>
+        <v>1.017311070847631</v>
       </c>
       <c r="E23">
-        <v>0.9812595702957598</v>
+        <v>1.012551351993743</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036056221602139</v>
+        <v>1.02499150187137</v>
       </c>
       <c r="J23">
-        <v>1.000190750260757</v>
+        <v>1.016972861111811</v>
       </c>
       <c r="K23">
-        <v>1.010305349019683</v>
+        <v>1.021024157259977</v>
       </c>
       <c r="L23">
-        <v>0.9968899886087442</v>
+        <v>1.016283314403497</v>
       </c>
       <c r="N23">
-        <v>1.004287597239443</v>
+        <v>1.009822967715737</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9748912125289739</v>
+        <v>1.011236993690804</v>
       </c>
       <c r="D24">
-        <v>0.9992836496802596</v>
+        <v>1.018130438894999</v>
       </c>
       <c r="E24">
-        <v>0.9859884679282307</v>
+        <v>1.013522803761651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037609109766067</v>
+        <v>1.025136599838585</v>
       </c>
       <c r="J24">
-        <v>1.003391280362422</v>
+        <v>1.017597861755893</v>
       </c>
       <c r="K24">
-        <v>1.013323356922313</v>
+        <v>1.021564067022545</v>
       </c>
       <c r="L24">
-        <v>1.000266192368365</v>
+        <v>1.016973224006935</v>
       </c>
       <c r="N24">
-        <v>1.005338772431867</v>
+        <v>1.010028247032046</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817995950977114</v>
+        <v>1.012584995629084</v>
       </c>
       <c r="D25">
-        <v>1.004129646975358</v>
+        <v>1.019079641433518</v>
       </c>
       <c r="E25">
-        <v>0.9913055251362338</v>
+        <v>1.014653122195489</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039276750802402</v>
+        <v>1.025295798268616</v>
       </c>
       <c r="J25">
-        <v>1.006955393131243</v>
+        <v>1.018321279163167</v>
       </c>
       <c r="K25">
-        <v>1.016664191972888</v>
+        <v>1.022185662170961</v>
       </c>
       <c r="L25">
-        <v>1.004040327929044</v>
+        <v>1.017773627636935</v>
       </c>
       <c r="N25">
-        <v>1.006509478137422</v>
+        <v>1.010265834852989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013661030557652</v>
+        <v>0.987111696908057</v>
       </c>
       <c r="D2">
-        <v>1.019835330644441</v>
+        <v>1.007854708706464</v>
       </c>
       <c r="E2">
-        <v>1.015557008224913</v>
+        <v>0.9954187050763034</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025415332750196</v>
+        <v>1.040502546370156</v>
       </c>
       <c r="J2">
-        <v>1.018896720792565</v>
+        <v>1.009684849174997</v>
       </c>
       <c r="K2">
-        <v>1.022677400990017</v>
+        <v>1.019205688921624</v>
       </c>
       <c r="L2">
-        <v>1.018411811045556</v>
+        <v>1.006942235765951</v>
       </c>
       <c r="N2">
-        <v>1.010454810447489</v>
+        <v>1.007406095836981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014442800291442</v>
+        <v>0.9908615332881553</v>
       </c>
       <c r="D3">
-        <v>1.020383181488358</v>
+        <v>1.010482318216041</v>
       </c>
       <c r="E3">
-        <v>1.016214634519904</v>
+        <v>0.998335698639057</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025497789374017</v>
+        <v>1.041333922798868</v>
       </c>
       <c r="J3">
-        <v>1.019313614728725</v>
+        <v>1.011604460676615</v>
       </c>
       <c r="K3">
-        <v>1.023032071704415</v>
+        <v>1.020982809952441</v>
       </c>
       <c r="L3">
-        <v>1.01887503543619</v>
+        <v>1.008989918897792</v>
       </c>
       <c r="N3">
-        <v>1.010591710862483</v>
+        <v>1.008036713688081</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014948865474225</v>
+        <v>0.9932406489667921</v>
       </c>
       <c r="D4">
-        <v>1.020737272801257</v>
+        <v>1.012148142928465</v>
       </c>
       <c r="E4">
-        <v>1.016640763650113</v>
+        <v>1.000192401370297</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025549131156304</v>
+        <v>1.041845292163269</v>
       </c>
       <c r="J4">
-        <v>1.019582934879522</v>
+        <v>1.012818854429219</v>
       </c>
       <c r="K4">
-        <v>1.023260458189376</v>
+        <v>1.022102128647086</v>
       </c>
       <c r="L4">
-        <v>1.019174692318271</v>
+        <v>1.01028850483158</v>
       </c>
       <c r="N4">
-        <v>1.010680146969364</v>
+        <v>1.008435669442954</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015161663175033</v>
+        <v>0.9942298381130293</v>
       </c>
       <c r="D5">
-        <v>1.020886033737131</v>
+        <v>1.012840394647175</v>
       </c>
       <c r="E5">
-        <v>1.016820050202678</v>
+        <v>1.000965784207698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025570232203532</v>
+        <v>1.042053984024464</v>
       </c>
       <c r="J5">
-        <v>1.019696050731673</v>
+        <v>1.013322897825885</v>
       </c>
       <c r="K5">
-        <v>1.023356204686031</v>
+        <v>1.022565501346101</v>
       </c>
       <c r="L5">
-        <v>1.019300647317738</v>
+        <v>1.010828259061657</v>
       </c>
       <c r="N5">
-        <v>1.010717289681996</v>
+        <v>1.008601261298038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015197395599602</v>
+        <v>0.9943952920583419</v>
       </c>
       <c r="D6">
-        <v>1.020911005481954</v>
+        <v>1.012956159082698</v>
       </c>
       <c r="E6">
-        <v>1.016850161464508</v>
+        <v>1.001095223377989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025573746805007</v>
+        <v>1.042088657749902</v>
       </c>
       <c r="J6">
-        <v>1.0197150371027</v>
+        <v>1.013407152700973</v>
       </c>
       <c r="K6">
-        <v>1.02337226522854</v>
+        <v>1.022642885943238</v>
       </c>
       <c r="L6">
-        <v>1.019321794454557</v>
+        <v>1.010918528506091</v>
       </c>
       <c r="N6">
-        <v>1.010723523991773</v>
+        <v>1.008628941414357</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014951708701672</v>
+        <v>0.9932539093237823</v>
       </c>
       <c r="D7">
-        <v>1.020739260944086</v>
+        <v>1.012157424272994</v>
       </c>
       <c r="E7">
-        <v>1.016643158730899</v>
+        <v>1.000202763288503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025549415008914</v>
+        <v>1.041848105320949</v>
       </c>
       <c r="J7">
-        <v>1.01958444675876</v>
+        <v>1.012825614780567</v>
       </c>
       <c r="K7">
-        <v>1.023261738610677</v>
+        <v>1.022108348326443</v>
       </c>
       <c r="L7">
-        <v>1.019176375418632</v>
+        <v>1.010295741109151</v>
       </c>
       <c r="N7">
-        <v>1.010680643413501</v>
+        <v>1.00843789039262</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013925189131205</v>
+        <v>0.9883889631007876</v>
       </c>
       <c r="D8">
-        <v>1.020020561940624</v>
+        <v>1.008749956985679</v>
       </c>
       <c r="E8">
-        <v>1.015779130480726</v>
+        <v>0.9964110117435133</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025443615543995</v>
+        <v>1.040789066662066</v>
       </c>
       <c r="J8">
-        <v>1.019037701888826</v>
+        <v>1.01033942319693</v>
       </c>
       <c r="K8">
-        <v>1.022797492298987</v>
+        <v>1.019812694773019</v>
       </c>
       <c r="L8">
-        <v>1.01856837559704</v>
+        <v>1.007639818634487</v>
       </c>
       <c r="N8">
-        <v>1.010501106856424</v>
+        <v>1.007621129420604</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012118005098458</v>
+        <v>0.9794387298289025</v>
       </c>
       <c r="D9">
-        <v>1.018751116018757</v>
+        <v>1.002473595723056</v>
       </c>
       <c r="E9">
-        <v>1.014261292929665</v>
+        <v>0.9894844657107106</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025241812318482</v>
+        <v>1.038715598935235</v>
       </c>
       <c r="J9">
-        <v>1.018070976272769</v>
+        <v>1.005739053421104</v>
       </c>
       <c r="K9">
-        <v>1.021971008005278</v>
+        <v>1.015526667642262</v>
       </c>
       <c r="L9">
-        <v>1.017496455018905</v>
+        <v>1.00275048564708</v>
       </c>
       <c r="N9">
-        <v>1.010183631363023</v>
+        <v>1.006109933699842</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010914452184691</v>
+        <v>0.9731952149476712</v>
       </c>
       <c r="D10">
-        <v>1.01790292366921</v>
+        <v>0.9980941266803645</v>
       </c>
       <c r="E10">
-        <v>1.013252673597427</v>
+        <v>0.9846885227769777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025097005657123</v>
+        <v>1.037188414221718</v>
       </c>
       <c r="J10">
-        <v>1.017424365637327</v>
+        <v>1.002514224440358</v>
       </c>
       <c r="K10">
-        <v>1.021414452003011</v>
+        <v>1.012497877733385</v>
       </c>
       <c r="L10">
-        <v>1.01678156426223</v>
+        <v>0.9993398454521948</v>
       </c>
       <c r="N10">
-        <v>1.009971264076356</v>
+        <v>1.005050703731122</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010393616891236</v>
+        <v>0.9704206157260101</v>
       </c>
       <c r="D11">
-        <v>1.017535224076091</v>
+        <v>0.9961485117489131</v>
       </c>
       <c r="E11">
-        <v>1.012816731464153</v>
+        <v>0.9825663323168542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02503187981917</v>
+        <v>1.036491437012603</v>
       </c>
       <c r="J11">
-        <v>1.017143889659535</v>
+        <v>1.001077891614795</v>
       </c>
       <c r="K11">
-        <v>1.021172157066827</v>
+        <v>1.011143428850956</v>
       </c>
       <c r="L11">
-        <v>1.016471962065505</v>
+        <v>0.9978246851394578</v>
       </c>
       <c r="N11">
-        <v>1.009879142679002</v>
+        <v>1.004578957451443</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010200204054485</v>
+        <v>0.9693788243907656</v>
       </c>
       <c r="D12">
-        <v>1.017398582101054</v>
+        <v>0.9954181525142861</v>
       </c>
       <c r="E12">
-        <v>1.012654924865399</v>
+        <v>0.9817709264800197</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025007326099229</v>
+        <v>1.036227063880738</v>
       </c>
       <c r="J12">
-        <v>1.0170396363228</v>
+        <v>1.000538143263599</v>
       </c>
       <c r="K12">
-        <v>1.02108196386386</v>
+        <v>1.01063366310939</v>
       </c>
       <c r="L12">
-        <v>1.016356956081656</v>
+        <v>0.9972559029493457</v>
       </c>
       <c r="N12">
-        <v>1.009844900389642</v>
+        <v>1.004401689110824</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010241689536493</v>
+        <v>0.9696028064791663</v>
       </c>
       <c r="D13">
-        <v>1.017427895038889</v>
+        <v>0.9955751686624245</v>
       </c>
       <c r="E13">
-        <v>1.012689627389588</v>
+        <v>0.981941871235685</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025012609369301</v>
+        <v>1.036284023052274</v>
       </c>
       <c r="J13">
-        <v>1.017062002255684</v>
+        <v>1.000654206845177</v>
       </c>
       <c r="K13">
-        <v>1.021101319368608</v>
+        <v>1.010743314595587</v>
       </c>
       <c r="L13">
-        <v>1.016381625499934</v>
+        <v>0.9973781832223242</v>
       </c>
       <c r="N13">
-        <v>1.009852246568879</v>
+        <v>1.004439807353128</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010377628324099</v>
+        <v>0.9703347320130086</v>
       </c>
       <c r="D14">
-        <v>1.017523930459775</v>
+        <v>0.9960882981213406</v>
       </c>
       <c r="E14">
-        <v>1.012803353985495</v>
+        <v>0.9825007310123395</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025029857601871</v>
+        <v>1.036469696465771</v>
       </c>
       <c r="J14">
-        <v>1.017135273508099</v>
+        <v>1.001033404304312</v>
       </c>
       <c r="K14">
-        <v>1.021164705618328</v>
+        <v>1.011101428630256</v>
       </c>
       <c r="L14">
-        <v>1.016462455747382</v>
+        <v>0.9977777928516612</v>
       </c>
       <c r="N14">
-        <v>1.009876312693625</v>
+        <v>1.004564346467956</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010461391190391</v>
+        <v>0.9707841984329657</v>
       </c>
       <c r="D15">
-        <v>1.017583092903545</v>
+        <v>0.9964034293287934</v>
       </c>
       <c r="E15">
-        <v>1.012873440884179</v>
+        <v>0.9828441091969026</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025040436725864</v>
+        <v>1.036583365427376</v>
       </c>
       <c r="J15">
-        <v>1.017180408837953</v>
+        <v>1.001266207777934</v>
       </c>
       <c r="K15">
-        <v>1.021203734309956</v>
+        <v>1.011321185134862</v>
       </c>
       <c r="L15">
-        <v>1.016512257188889</v>
+        <v>0.9980232056055803</v>
       </c>
       <c r="N15">
-        <v>1.009891137421685</v>
+        <v>1.004640806426015</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010949025019345</v>
+        <v>0.973377815861351</v>
       </c>
       <c r="D16">
-        <v>1.017927317872402</v>
+        <v>0.9982221900132358</v>
       </c>
       <c r="E16">
-        <v>1.013281622599607</v>
+        <v>0.9848283820887492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025101276870539</v>
+        <v>1.037233908000745</v>
       </c>
       <c r="J16">
-        <v>1.017442969718419</v>
+        <v>1.002608688144001</v>
       </c>
       <c r="K16">
-        <v>1.021430505015355</v>
+        <v>1.012586845355474</v>
       </c>
       <c r="L16">
-        <v>1.016802110622834</v>
+        <v>0.9994395751233183</v>
       </c>
       <c r="N16">
-        <v>1.00997737443584</v>
+        <v>1.005081729934718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011254989423166</v>
+        <v>0.9749853420223158</v>
       </c>
       <c r="D17">
-        <v>1.018143128369629</v>
+        <v>0.9993496734749764</v>
       </c>
       <c r="E17">
-        <v>1.013537878936036</v>
+        <v>0.9860606774717975</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025138792152572</v>
+        <v>1.037632335658133</v>
       </c>
       <c r="J17">
-        <v>1.017607537241465</v>
+        <v>1.003439936102566</v>
       </c>
       <c r="K17">
-        <v>1.021572404709313</v>
+        <v>1.013369114887105</v>
       </c>
       <c r="L17">
-        <v>1.016983915783017</v>
+        <v>1.000317609016489</v>
       </c>
       <c r="N17">
-        <v>1.010031424813423</v>
+        <v>1.00535475361284</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01143348317259</v>
+        <v>0.9759161582977059</v>
       </c>
       <c r="D18">
-        <v>1.018268965667891</v>
+        <v>1.000002579987576</v>
       </c>
       <c r="E18">
-        <v>1.013687425655587</v>
+        <v>0.9867750834736129</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025160440270906</v>
+        <v>1.037861296236928</v>
       </c>
       <c r="J18">
-        <v>1.017703479386191</v>
+        <v>1.003920949365227</v>
       </c>
       <c r="K18">
-        <v>1.021655046618734</v>
+        <v>1.013821268897713</v>
       </c>
       <c r="L18">
-        <v>1.017089954751256</v>
+        <v>1.00082606888788</v>
       </c>
       <c r="N18">
-        <v>1.010062935535642</v>
+        <v>1.005512745654606</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011494349941871</v>
+        <v>0.9762323993054488</v>
       </c>
       <c r="D19">
-        <v>1.018311865862062</v>
+        <v>1.000224408900594</v>
       </c>
       <c r="E19">
-        <v>1.01373843017598</v>
+        <v>0.9870179446407112</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025167782012879</v>
+        <v>1.037938786726232</v>
       </c>
       <c r="J19">
-        <v>1.017736185110064</v>
+        <v>1.004084317860235</v>
       </c>
       <c r="K19">
-        <v>1.021683203990278</v>
+        <v>1.013974747241308</v>
       </c>
       <c r="L19">
-        <v>1.017126110420179</v>
+        <v>1.000998822590396</v>
       </c>
       <c r="N19">
-        <v>1.010073677157729</v>
+        <v>1.005566405638591</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01122215923331</v>
+        <v>0.9748135792781101</v>
       </c>
       <c r="D20">
-        <v>1.018119978203506</v>
+        <v>0.9992291968757397</v>
       </c>
       <c r="E20">
-        <v>1.013510377104725</v>
+        <v>0.9859289180131858</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025134791304866</v>
+        <v>1.037589944351131</v>
       </c>
       <c r="J20">
-        <v>1.017589885586466</v>
+        <v>1.003351149808647</v>
       </c>
       <c r="K20">
-        <v>1.021557193213555</v>
+        <v>1.013285613481664</v>
       </c>
       <c r="L20">
-        <v>1.016964410306238</v>
+        <v>1.000223786769836</v>
       </c>
       <c r="N20">
-        <v>1.010025627365578</v>
+        <v>1.005325591401234</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010337596383432</v>
+        <v>0.9701195109996196</v>
       </c>
       <c r="D21">
-        <v>1.017495652115669</v>
+        <v>0.9959374082785705</v>
       </c>
       <c r="E21">
-        <v>1.012769860961275</v>
+        <v>0.9823363599799622</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02502478844191</v>
+        <v>1.036415172696328</v>
       </c>
       <c r="J21">
-        <v>1.017113698928451</v>
+        <v>1.000921913981985</v>
       </c>
       <c r="K21">
-        <v>1.021146045292182</v>
+        <v>1.010996158643997</v>
       </c>
       <c r="L21">
-        <v>1.016438653405905</v>
+        <v>0.9976602848455099</v>
       </c>
       <c r="N21">
-        <v>1.009869226486672</v>
+        <v>1.004527729752151</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009781718599878</v>
+        <v>0.9671032018224374</v>
       </c>
       <c r="D22">
-        <v>1.017102756007106</v>
+        <v>0.9938232027405758</v>
       </c>
       <c r="E22">
-        <v>1.012304974300607</v>
+        <v>0.9800361686953688</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024953525090093</v>
+        <v>1.035644748040695</v>
       </c>
       <c r="J22">
-        <v>1.016813885208278</v>
+        <v>0.9993583876545263</v>
       </c>
       <c r="K22">
-        <v>1.020886418205273</v>
+        <v>1.009518024383098</v>
       </c>
       <c r="L22">
-        <v>1.016108055546364</v>
+        <v>0.996013765417892</v>
       </c>
       <c r="N22">
-        <v>1.009770750687525</v>
+        <v>1.004014235455613</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010076372585484</v>
+        <v>0.9687085360825537</v>
       </c>
       <c r="D23">
-        <v>1.017311070847631</v>
+        <v>0.9949482973487865</v>
       </c>
       <c r="E23">
-        <v>1.012551351993743</v>
+        <v>0.9812595702957593</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02499150187137</v>
+        <v>1.036056221602139</v>
       </c>
       <c r="J23">
-        <v>1.016972861111811</v>
+        <v>1.000190750260756</v>
       </c>
       <c r="K23">
-        <v>1.021024157259977</v>
+        <v>1.010305349019682</v>
       </c>
       <c r="L23">
-        <v>1.016283314403497</v>
+        <v>0.9968899886087438</v>
       </c>
       <c r="N23">
-        <v>1.009822967715737</v>
+        <v>1.004287597239443</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011236993690804</v>
+        <v>0.9748912125289733</v>
       </c>
       <c r="D24">
-        <v>1.018130438894999</v>
+        <v>0.9992836496802588</v>
       </c>
       <c r="E24">
-        <v>1.013522803761651</v>
+        <v>0.9859884679282297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025136599838585</v>
+        <v>1.037609109766066</v>
       </c>
       <c r="J24">
-        <v>1.017597861755893</v>
+        <v>1.003391280362422</v>
       </c>
       <c r="K24">
-        <v>1.021564067022545</v>
+        <v>1.013323356922312</v>
       </c>
       <c r="L24">
-        <v>1.016973224006935</v>
+        <v>1.000266192368364</v>
       </c>
       <c r="N24">
-        <v>1.010028247032046</v>
+        <v>1.005338772431867</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012584995629084</v>
+        <v>0.9817995950977106</v>
       </c>
       <c r="D25">
-        <v>1.019079641433518</v>
+        <v>1.004129646975357</v>
       </c>
       <c r="E25">
-        <v>1.014653122195489</v>
+        <v>0.991305525136233</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025295798268616</v>
+        <v>1.039276750802402</v>
       </c>
       <c r="J25">
-        <v>1.018321279163167</v>
+        <v>1.006955393131242</v>
       </c>
       <c r="K25">
-        <v>1.022185662170961</v>
+        <v>1.016664191972888</v>
       </c>
       <c r="L25">
-        <v>1.017773627636935</v>
+        <v>1.004040327929043</v>
       </c>
       <c r="N25">
-        <v>1.010265834852989</v>
+        <v>1.006509478137422</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.987111696908057</v>
+        <v>1.009378014829229</v>
       </c>
       <c r="D2">
-        <v>1.007854708706464</v>
+        <v>1.031137982498565</v>
       </c>
       <c r="E2">
-        <v>0.9954187050763034</v>
+        <v>1.014573919658066</v>
+      </c>
+      <c r="F2">
+        <v>1.035747965847585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040502546370156</v>
+        <v>1.050698923623226</v>
       </c>
       <c r="J2">
-        <v>1.009684849174997</v>
+        <v>1.031281803939911</v>
       </c>
       <c r="K2">
-        <v>1.019205688921624</v>
+        <v>1.042179912681009</v>
       </c>
       <c r="L2">
-        <v>1.006942235765951</v>
+        <v>1.025833882891135</v>
+      </c>
+      <c r="M2">
+        <v>1.046730764972447</v>
       </c>
       <c r="N2">
-        <v>1.007406095836981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014340301757876</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045556638962269</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040895134331857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9908615332881553</v>
+        <v>1.012625851651678</v>
       </c>
       <c r="D3">
-        <v>1.010482318216041</v>
+        <v>1.03332095812639</v>
       </c>
       <c r="E3">
-        <v>0.998335698639057</v>
+        <v>1.017085441594068</v>
+      </c>
+      <c r="F3">
+        <v>1.03813371832081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041333922798868</v>
+        <v>1.051503849641158</v>
       </c>
       <c r="J3">
-        <v>1.011604460676615</v>
+        <v>1.032778142432476</v>
       </c>
       <c r="K3">
-        <v>1.020982809952441</v>
+        <v>1.043544529235684</v>
       </c>
       <c r="L3">
-        <v>1.008989918897792</v>
+        <v>1.027504280446418</v>
+      </c>
+      <c r="M3">
+        <v>1.048300857265102</v>
       </c>
       <c r="N3">
-        <v>1.008036713688081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014842582666527</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04679925205255</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041857373070652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9932406489667921</v>
+        <v>1.014693802602205</v>
       </c>
       <c r="D4">
-        <v>1.012148142928465</v>
+        <v>1.034714658021453</v>
       </c>
       <c r="E4">
-        <v>1.000192401370297</v>
+        <v>1.018690139989665</v>
+      </c>
+      <c r="F4">
+        <v>1.039659947274943</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041845292163269</v>
+        <v>1.052007417052808</v>
       </c>
       <c r="J4">
-        <v>1.012818854429219</v>
+        <v>1.033728964159201</v>
       </c>
       <c r="K4">
-        <v>1.022102128647086</v>
+        <v>1.044411411081605</v>
       </c>
       <c r="L4">
-        <v>1.01028850483158</v>
+        <v>1.028568105730721</v>
+      </c>
+      <c r="M4">
+        <v>1.04930216257959</v>
       </c>
       <c r="N4">
-        <v>1.008435669442954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015161797979516</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047591710801205</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042471221008822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9942298381130293</v>
+        <v>1.015557831214318</v>
       </c>
       <c r="D5">
-        <v>1.012840394647175</v>
+        <v>1.035299737419074</v>
       </c>
       <c r="E5">
-        <v>1.000965784207698</v>
+        <v>1.019362243021001</v>
+      </c>
+      <c r="F5">
+        <v>1.040300058114704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042053984024464</v>
+        <v>1.05221701772089</v>
       </c>
       <c r="J5">
-        <v>1.013322897825885</v>
+        <v>1.034127047540897</v>
       </c>
       <c r="K5">
-        <v>1.022565501346101</v>
+        <v>1.044775603032581</v>
       </c>
       <c r="L5">
-        <v>1.010828259061657</v>
+        <v>1.029013580728722</v>
+      </c>
+      <c r="M5">
+        <v>1.049722227480173</v>
       </c>
       <c r="N5">
-        <v>1.008601261298038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015295721684055</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047924160701707</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042735877466186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9943952920583419</v>
+        <v>1.015705500625489</v>
       </c>
       <c r="D6">
-        <v>1.012956159082698</v>
+        <v>1.035402078689564</v>
       </c>
       <c r="E6">
-        <v>1.001095223377989</v>
+        <v>1.019477571056309</v>
+      </c>
+      <c r="F6">
+        <v>1.040410439979041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042088657749902</v>
+        <v>1.052254390494956</v>
       </c>
       <c r="J6">
-        <v>1.013407152700973</v>
+        <v>1.034196627333927</v>
       </c>
       <c r="K6">
-        <v>1.022642885943238</v>
+        <v>1.044840845631151</v>
       </c>
       <c r="L6">
-        <v>1.010918528506091</v>
+        <v>1.029090871140939</v>
+      </c>
+      <c r="M6">
+        <v>1.049795667350987</v>
       </c>
       <c r="N6">
-        <v>1.008628941414357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015319453488698</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047982282842524</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042790721329207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9932539093237823</v>
+        <v>1.014713571224807</v>
       </c>
       <c r="D7">
-        <v>1.012157424272994</v>
+        <v>1.034734178354324</v>
       </c>
       <c r="E7">
-        <v>1.000202763288503</v>
+        <v>1.018706547548341</v>
+      </c>
+      <c r="F7">
+        <v>1.039676940066173</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041848105320949</v>
+        <v>1.052016715263002</v>
       </c>
       <c r="J7">
-        <v>1.012825614780567</v>
+        <v>1.033742290776261</v>
       </c>
       <c r="K7">
-        <v>1.022108348326443</v>
+        <v>1.044427847888425</v>
       </c>
       <c r="L7">
-        <v>1.010295741109151</v>
+        <v>1.028581396667676</v>
+      </c>
+      <c r="M7">
+        <v>1.049316120217666</v>
       </c>
       <c r="N7">
-        <v>1.00843789039262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01516715889276</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047602757228533</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04250288132371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9883889631007876</v>
+        <v>1.01049292292205</v>
       </c>
       <c r="D8">
-        <v>1.008749956985679</v>
+        <v>1.031894109288413</v>
       </c>
       <c r="E8">
-        <v>0.9964110117435133</v>
+        <v>1.015436237812309</v>
+      </c>
+      <c r="F8">
+        <v>1.036568336596195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040789066662066</v>
+        <v>1.050982561994821</v>
       </c>
       <c r="J8">
-        <v>1.01033942319693</v>
+        <v>1.031801065286742</v>
       </c>
       <c r="K8">
-        <v>1.019812694773019</v>
+        <v>1.042658713527212</v>
       </c>
       <c r="L8">
-        <v>1.007639818634487</v>
+        <v>1.026411097536956</v>
+      </c>
+      <c r="M8">
+        <v>1.047274742043838</v>
       </c>
       <c r="N8">
-        <v>1.007621129420604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01451573549601</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045987157222853</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041256513865769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9794387298289025</v>
+        <v>1.002775494595041</v>
       </c>
       <c r="D9">
-        <v>1.002473595723056</v>
+        <v>1.026722493049872</v>
       </c>
       <c r="E9">
-        <v>0.9894844657107106</v>
+        <v>1.009499970542561</v>
+      </c>
+      <c r="F9">
+        <v>1.03093871309445</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038715598935235</v>
+        <v>1.049015397282077</v>
       </c>
       <c r="J9">
-        <v>1.005739053421104</v>
+        <v>1.028230622257575</v>
       </c>
       <c r="K9">
-        <v>1.015526667642262</v>
+        <v>1.039396399591244</v>
       </c>
       <c r="L9">
-        <v>1.00275048564708</v>
+        <v>1.02244077500078</v>
+      </c>
+      <c r="M9">
+        <v>1.043549010376938</v>
       </c>
       <c r="N9">
-        <v>1.006109933699842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013316551331659</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043038506702737</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038946693980769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9731952149476712</v>
+        <v>0.9974794284008088</v>
       </c>
       <c r="D10">
-        <v>0.9980941266803645</v>
+        <v>1.023228175900381</v>
       </c>
       <c r="E10">
-        <v>0.9846885227769777</v>
+        <v>1.005464181690356</v>
+      </c>
+      <c r="F10">
+        <v>1.027223541971336</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037188414221718</v>
+        <v>1.047642958274392</v>
       </c>
       <c r="J10">
-        <v>1.002514224440358</v>
+        <v>1.02579340947075</v>
       </c>
       <c r="K10">
-        <v>1.012497877733385</v>
+        <v>1.037190332165983</v>
       </c>
       <c r="L10">
-        <v>0.9993398454521948</v>
+        <v>1.019735474555425</v>
+      </c>
+      <c r="M10">
+        <v>1.041118068789719</v>
       </c>
       <c r="N10">
-        <v>1.005050703731122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012502639291968</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041165854804566</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037403641633334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9704206157260101</v>
+        <v>0.9954585857611041</v>
       </c>
       <c r="D11">
-        <v>0.9961485117489131</v>
+        <v>1.022141931339692</v>
       </c>
       <c r="E11">
-        <v>0.9825663323168542</v>
+        <v>1.003976896927637</v>
+      </c>
+      <c r="F11">
+        <v>1.026662146080496</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036491437012603</v>
+        <v>1.047274886881997</v>
       </c>
       <c r="J11">
-        <v>1.001077891614795</v>
+        <v>1.025021520945551</v>
       </c>
       <c r="K11">
-        <v>1.011143428850956</v>
+        <v>1.036658024258803</v>
       </c>
       <c r="L11">
-        <v>0.9978246851394578</v>
+        <v>1.018824202487855</v>
+      </c>
+      <c r="M11">
+        <v>1.041098180390402</v>
       </c>
       <c r="N11">
-        <v>1.004578957451443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012279460526069</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041584764642848</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03706003377164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9693788243907656</v>
+        <v>0.9948011553535373</v>
       </c>
       <c r="D12">
-        <v>0.9954181525142861</v>
+        <v>1.021877712018182</v>
       </c>
       <c r="E12">
-        <v>0.9817709264800197</v>
+        <v>1.003511433307616</v>
+      </c>
+      <c r="F12">
+        <v>1.026821544842166</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036227063880738</v>
+        <v>1.047212557990394</v>
       </c>
       <c r="J12">
-        <v>1.000538143263599</v>
+        <v>1.024827181054378</v>
       </c>
       <c r="K12">
-        <v>1.01063366310939</v>
+        <v>1.036597438850346</v>
       </c>
       <c r="L12">
-        <v>0.9972559029493457</v>
+        <v>1.01857166759161</v>
+      </c>
+      <c r="M12">
+        <v>1.041452315962226</v>
       </c>
       <c r="N12">
-        <v>1.004401689110824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012241244839295</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042190119808129</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037017198155726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9696028064791663</v>
+        <v>0.9951598900208716</v>
       </c>
       <c r="D13">
-        <v>0.9955751686624245</v>
+        <v>1.022244718561806</v>
       </c>
       <c r="E13">
-        <v>0.981941871235685</v>
+        <v>1.003808836270004</v>
+      </c>
+      <c r="F13">
+        <v>1.027572148331487</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036284023052274</v>
+        <v>1.047394936090472</v>
       </c>
       <c r="J13">
-        <v>1.000654206845177</v>
+        <v>1.025077137940192</v>
       </c>
       <c r="K13">
-        <v>1.010743314595587</v>
+        <v>1.036915156785765</v>
       </c>
       <c r="L13">
-        <v>0.9973781832223242</v>
+        <v>1.018819636993396</v>
+      </c>
+      <c r="M13">
+        <v>1.042147183692592</v>
       </c>
       <c r="N13">
-        <v>1.004439807353128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012348359168316</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04301529964739</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037239348512269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9703347320130086</v>
+        <v>0.9958709765478369</v>
       </c>
       <c r="D14">
-        <v>0.9960882981213406</v>
+        <v>1.022786709352993</v>
       </c>
       <c r="E14">
-        <v>0.9825007310123395</v>
+        <v>1.004362221060574</v>
+      </c>
+      <c r="F14">
+        <v>1.028362797306654</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036469696465771</v>
+        <v>1.047632580715192</v>
       </c>
       <c r="J14">
-        <v>1.001033404304312</v>
+        <v>1.025452443461476</v>
       </c>
       <c r="K14">
-        <v>1.011101428630256</v>
+        <v>1.037307749153173</v>
       </c>
       <c r="L14">
-        <v>0.9977777928516612</v>
+        <v>1.019219200050219</v>
+      </c>
+      <c r="M14">
+        <v>1.042785241625224</v>
       </c>
       <c r="N14">
-        <v>1.004564346467956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012488917621635</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043692475942508</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037518343001994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9707841984329657</v>
+        <v>0.9962702419834948</v>
       </c>
       <c r="D15">
-        <v>0.9964034293287934</v>
+        <v>1.023065873834817</v>
       </c>
       <c r="E15">
-        <v>0.9828441091969026</v>
+        <v>1.004667994241046</v>
+      </c>
+      <c r="F15">
+        <v>1.028704393449122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036583365427376</v>
+        <v>1.047749180781844</v>
       </c>
       <c r="J15">
-        <v>1.001266207777934</v>
+        <v>1.025646977067581</v>
       </c>
       <c r="K15">
-        <v>1.011321185134862</v>
+        <v>1.037495940795864</v>
       </c>
       <c r="L15">
-        <v>0.9980232056055803</v>
+        <v>1.019430971359571</v>
+      </c>
+      <c r="M15">
+        <v>1.043035517959451</v>
       </c>
       <c r="N15">
-        <v>1.004640806426015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012557344483511</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043927726307734</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037657253003059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.973377815861351</v>
+        <v>0.998440361368649</v>
       </c>
       <c r="D16">
-        <v>0.9982221900132358</v>
+        <v>1.024480721869748</v>
       </c>
       <c r="E16">
-        <v>0.9848283820887492</v>
+        <v>1.006311503008887</v>
+      </c>
+      <c r="F16">
+        <v>1.030173997297592</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037233908000745</v>
+        <v>1.048312529993169</v>
       </c>
       <c r="J16">
-        <v>1.002608688144001</v>
+        <v>1.026639011825588</v>
       </c>
       <c r="K16">
-        <v>1.012586845355474</v>
+        <v>1.038386180443202</v>
       </c>
       <c r="L16">
-        <v>0.9994395751233183</v>
+        <v>1.020531383073176</v>
+      </c>
+      <c r="M16">
+        <v>1.043983872795305</v>
       </c>
       <c r="N16">
-        <v>1.005081729934718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012884590576546</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044638697773137</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038289838893454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9749853420223158</v>
+        <v>0.9997361831708834</v>
       </c>
       <c r="D17">
-        <v>0.9993496734749764</v>
+        <v>1.025284906061784</v>
       </c>
       <c r="E17">
-        <v>0.9860606774717975</v>
+        <v>1.007286755896204</v>
+      </c>
+      <c r="F17">
+        <v>1.030883028191618</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037632335658133</v>
+        <v>1.048618695081058</v>
       </c>
       <c r="J17">
-        <v>1.003439936102566</v>
+        <v>1.027204503246825</v>
       </c>
       <c r="K17">
-        <v>1.013369114887105</v>
+        <v>1.038863662632659</v>
       </c>
       <c r="L17">
-        <v>1.000317609016489</v>
+        <v>1.021168216877513</v>
+      </c>
+      <c r="M17">
+        <v>1.044370399527849</v>
       </c>
       <c r="N17">
-        <v>1.00535475361284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013062290627118</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044815563550593</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038630015855782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759161582977059</v>
+        <v>1.000389011936833</v>
       </c>
       <c r="D18">
-        <v>1.000002579987576</v>
+        <v>1.025609353419567</v>
       </c>
       <c r="E18">
-        <v>0.9867750834736129</v>
+        <v>1.007763547471602</v>
+      </c>
+      <c r="F18">
+        <v>1.03093845164967</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037861296236928</v>
+        <v>1.048717815201681</v>
       </c>
       <c r="J18">
-        <v>1.003920949365227</v>
+        <v>1.027437330920731</v>
       </c>
       <c r="K18">
-        <v>1.013821268897713</v>
+        <v>1.039000207896449</v>
       </c>
       <c r="L18">
-        <v>1.00082606888788</v>
+        <v>1.021449604198459</v>
+      </c>
+      <c r="M18">
+        <v>1.044243693363344</v>
       </c>
       <c r="N18">
-        <v>1.005512745654606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013120223415134</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044478482406294</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038714958210795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9762323993054488</v>
+        <v>1.000456210181242</v>
       </c>
       <c r="D19">
-        <v>1.000224408900594</v>
+        <v>1.025498347718515</v>
       </c>
       <c r="E19">
-        <v>0.9870179446407112</v>
+        <v>1.007785870148371</v>
+      </c>
+      <c r="F19">
+        <v>1.030389996044432</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037938786726232</v>
+        <v>1.048630139476792</v>
       </c>
       <c r="J19">
-        <v>1.004084317860235</v>
+        <v>1.027367467004924</v>
       </c>
       <c r="K19">
-        <v>1.013974747241308</v>
+        <v>1.038828733608992</v>
       </c>
       <c r="L19">
-        <v>1.000998822590396</v>
+        <v>1.02140771936527</v>
+      </c>
+      <c r="M19">
+        <v>1.043642151197946</v>
       </c>
       <c r="N19">
-        <v>1.005566405638591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013071785568026</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043678482516623</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038600096306988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9748135792781101</v>
+        <v>0.9988713741943291</v>
       </c>
       <c r="D20">
-        <v>0.9992291968757397</v>
+        <v>1.024161290253706</v>
       </c>
       <c r="E20">
-        <v>0.9859289180131858</v>
+        <v>1.006525732681981</v>
+      </c>
+      <c r="F20">
+        <v>1.028208378686266</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037589944351131</v>
+        <v>1.048018403885802</v>
       </c>
       <c r="J20">
-        <v>1.003351149808647</v>
+        <v>1.026445871906669</v>
       </c>
       <c r="K20">
-        <v>1.013285613481664</v>
+        <v>1.037792192804296</v>
       </c>
       <c r="L20">
-        <v>1.000223786769836</v>
+        <v>1.020454797361399</v>
+      </c>
+      <c r="M20">
+        <v>1.041772712588111</v>
       </c>
       <c r="N20">
-        <v>1.005325591401234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012723242037149</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04167341960803</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037871135514914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9701195109996196</v>
+        <v>0.9948399873588868</v>
       </c>
       <c r="D21">
-        <v>0.9959374082785705</v>
+        <v>1.021460056453362</v>
       </c>
       <c r="E21">
-        <v>0.9823363599799622</v>
+        <v>1.003456292451544</v>
+      </c>
+      <c r="F21">
+        <v>1.025228959094052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036415172696328</v>
+        <v>1.046924418292321</v>
       </c>
       <c r="J21">
-        <v>1.000921913981985</v>
+        <v>1.024555042062346</v>
       </c>
       <c r="K21">
-        <v>1.010996158643997</v>
+        <v>1.036045956523592</v>
       </c>
       <c r="L21">
-        <v>0.9976602848455099</v>
+        <v>1.018372478844839</v>
+      </c>
+      <c r="M21">
+        <v>1.039747622405802</v>
       </c>
       <c r="N21">
-        <v>1.004527729752151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012085296631253</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040029967302221</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036639702983952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9671032018224374</v>
+        <v>0.9922718867368963</v>
       </c>
       <c r="D22">
-        <v>0.9938232027405758</v>
+        <v>1.019753918320518</v>
       </c>
       <c r="E22">
-        <v>0.9800361686953688</v>
+        <v>1.001509820359154</v>
+      </c>
+      <c r="F22">
+        <v>1.02339162309006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035644748040695</v>
+        <v>1.046224987140601</v>
       </c>
       <c r="J22">
-        <v>0.9993583876545263</v>
+        <v>1.023355062241612</v>
       </c>
       <c r="K22">
-        <v>1.009518024383098</v>
+        <v>1.034943947204465</v>
       </c>
       <c r="L22">
-        <v>0.996013765417892</v>
+        <v>1.017051426632201</v>
+      </c>
+      <c r="M22">
+        <v>1.038513506419227</v>
       </c>
       <c r="N22">
-        <v>1.004014235455613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011681427733299</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039053245942784</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03584706357632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9687085360825537</v>
+        <v>0.9936300883645972</v>
       </c>
       <c r="D23">
-        <v>0.9949482973487865</v>
+        <v>1.020650389019535</v>
       </c>
       <c r="E23">
-        <v>0.9812595702957593</v>
+        <v>1.00253741196934</v>
+      </c>
+      <c r="F23">
+        <v>1.024360344830552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036056221602139</v>
+        <v>1.046592014508014</v>
       </c>
       <c r="J23">
-        <v>1.000190750260756</v>
+        <v>1.023986111177635</v>
       </c>
       <c r="K23">
-        <v>1.010305349019682</v>
+        <v>1.035519960728407</v>
       </c>
       <c r="L23">
-        <v>0.9968899886087438</v>
+        <v>1.017747118957838</v>
+      </c>
+      <c r="M23">
+        <v>1.039162179899974</v>
       </c>
       <c r="N23">
-        <v>1.004287597239443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011892861901295</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03956662835998</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036244716060636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9748912125289733</v>
+        <v>0.9988945049077848</v>
       </c>
       <c r="D24">
-        <v>0.9992836496802588</v>
+        <v>1.024144677891394</v>
       </c>
       <c r="E24">
-        <v>0.9859884679282297</v>
+        <v>1.006537322566769</v>
+      </c>
+      <c r="F24">
+        <v>1.028137674024127</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037609109766066</v>
+        <v>1.048002447080825</v>
       </c>
       <c r="J24">
-        <v>1.003391280362422</v>
+        <v>1.026435176470102</v>
       </c>
       <c r="K24">
-        <v>1.013323356922312</v>
+        <v>1.037760650292378</v>
       </c>
       <c r="L24">
-        <v>1.000266192368364</v>
+        <v>1.020450599928104</v>
+      </c>
+      <c r="M24">
+        <v>1.041688044392384</v>
       </c>
       <c r="N24">
-        <v>1.005338772431867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012715134333968</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04156568056965</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03782150176612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9817995950977106</v>
+        <v>1.004816668188052</v>
       </c>
       <c r="D25">
-        <v>1.004129646975357</v>
+        <v>1.028095884714145</v>
       </c>
       <c r="E25">
-        <v>0.991305525136233</v>
+        <v>1.011066363327811</v>
+      </c>
+      <c r="F25">
+        <v>1.03242429594243</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039276750802402</v>
+        <v>1.049550326651098</v>
       </c>
       <c r="J25">
-        <v>1.006955393131242</v>
+        <v>1.02918301248112</v>
       </c>
       <c r="K25">
-        <v>1.016664191972888</v>
+        <v>1.040273160440611</v>
       </c>
       <c r="L25">
-        <v>1.004040327929043</v>
+        <v>1.023495283303561</v>
+      </c>
+      <c r="M25">
+        <v>1.044539286252769</v>
       </c>
       <c r="N25">
-        <v>1.006509478137422</v>
+        <v>1.013637883313745</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043822240493188</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039595112667574</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009378014829229</v>
+        <v>1.008861838526167</v>
       </c>
       <c r="D2">
-        <v>1.031137982498565</v>
+        <v>1.030052766455933</v>
       </c>
       <c r="E2">
-        <v>1.014573919658066</v>
+        <v>1.014134098977425</v>
       </c>
       <c r="F2">
-        <v>1.035747965847585</v>
+        <v>1.034964417058203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050698923623226</v>
+        <v>1.050158563957706</v>
       </c>
       <c r="J2">
-        <v>1.031281803939911</v>
+        <v>1.03078068609349</v>
       </c>
       <c r="K2">
-        <v>1.042179912681009</v>
+        <v>1.041108712716879</v>
       </c>
       <c r="L2">
-        <v>1.025833882891135</v>
+        <v>1.025399973559155</v>
       </c>
       <c r="M2">
-        <v>1.046730764972447</v>
+        <v>1.045957220126277</v>
       </c>
       <c r="N2">
-        <v>1.014340301757876</v>
+        <v>1.015374120844175</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045556638962269</v>
+        <v>1.044944434081333</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040895134331857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040146455620617</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022976042595658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012625851651678</v>
+        <v>1.012008089679494</v>
       </c>
       <c r="D3">
-        <v>1.03332095812639</v>
+        <v>1.032097673423515</v>
       </c>
       <c r="E3">
-        <v>1.017085441594068</v>
+        <v>1.016556327149812</v>
       </c>
       <c r="F3">
-        <v>1.03813371832081</v>
+        <v>1.037251333224653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051503849641158</v>
+        <v>1.050884926480355</v>
       </c>
       <c r="J3">
-        <v>1.032778142432476</v>
+        <v>1.032176670049521</v>
       </c>
       <c r="K3">
-        <v>1.043544529235684</v>
+        <v>1.042335692092461</v>
       </c>
       <c r="L3">
-        <v>1.027504280446418</v>
+        <v>1.026981660288749</v>
       </c>
       <c r="M3">
-        <v>1.048300857265102</v>
+        <v>1.047428770105397</v>
       </c>
       <c r="N3">
-        <v>1.014842582666527</v>
+        <v>1.015745879042947</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04679925205255</v>
+        <v>1.046109059177396</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041857373070652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041011099036987</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023205893168648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014693802602205</v>
+        <v>1.014011925970886</v>
       </c>
       <c r="D4">
-        <v>1.034714658021453</v>
+        <v>1.033403833299784</v>
       </c>
       <c r="E4">
-        <v>1.018690139989665</v>
+        <v>1.018104603934461</v>
       </c>
       <c r="F4">
-        <v>1.039659947274943</v>
+        <v>1.038714992831127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052007417052808</v>
+        <v>1.051338609331692</v>
       </c>
       <c r="J4">
-        <v>1.033728964159201</v>
+        <v>1.033063871909889</v>
       </c>
       <c r="K4">
-        <v>1.044411411081605</v>
+        <v>1.043115150078621</v>
       </c>
       <c r="L4">
-        <v>1.028568105730721</v>
+        <v>1.027989324603002</v>
       </c>
       <c r="M4">
-        <v>1.04930216257959</v>
+        <v>1.048367579998204</v>
       </c>
       <c r="N4">
-        <v>1.015161797979516</v>
+        <v>1.015982219590696</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047591710801205</v>
+        <v>1.046852058164037</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042471221008822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041563214330689</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023349621672704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015557831214318</v>
+        <v>1.014849279927034</v>
       </c>
       <c r="D5">
-        <v>1.035299737419074</v>
+        <v>1.033952466839362</v>
       </c>
       <c r="E5">
-        <v>1.019362243021001</v>
+        <v>1.018753214821855</v>
       </c>
       <c r="F5">
-        <v>1.040300058114704</v>
+        <v>1.039329075356928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05221701772089</v>
+        <v>1.051527411138156</v>
       </c>
       <c r="J5">
-        <v>1.034127047540897</v>
+        <v>1.033435424759153</v>
       </c>
       <c r="K5">
-        <v>1.044775603032581</v>
+        <v>1.043442909131398</v>
       </c>
       <c r="L5">
-        <v>1.029013580728722</v>
+        <v>1.028411392036684</v>
       </c>
       <c r="M5">
-        <v>1.049722227480173</v>
+        <v>1.048761622164654</v>
       </c>
       <c r="N5">
-        <v>1.015295721684055</v>
+        <v>1.016081417860233</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047924160701707</v>
+        <v>1.047163913336373</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042735877466186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041802820568426</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023409962067417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015705500625489</v>
+        <v>1.014992378279501</v>
       </c>
       <c r="D6">
-        <v>1.035402078689564</v>
+        <v>1.034048636822783</v>
       </c>
       <c r="E6">
-        <v>1.019477571056309</v>
+        <v>1.018864510378955</v>
       </c>
       <c r="F6">
-        <v>1.040410439979041</v>
+        <v>1.039435050719975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052254390494956</v>
+        <v>1.051561245195657</v>
       </c>
       <c r="J6">
-        <v>1.034196627333927</v>
+        <v>1.033500456552554</v>
       </c>
       <c r="K6">
-        <v>1.044840845631151</v>
+        <v>1.043501981223307</v>
       </c>
       <c r="L6">
-        <v>1.029090871140939</v>
+        <v>1.028484663844042</v>
       </c>
       <c r="M6">
-        <v>1.049795667350987</v>
+        <v>1.048830655509799</v>
       </c>
       <c r="N6">
-        <v>1.015319453488698</v>
+        <v>1.016099028294059</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047982282842524</v>
+        <v>1.047218548099442</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042790721329207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041854169425477</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02342136286279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014713571224807</v>
+        <v>1.014037419579898</v>
       </c>
       <c r="D7">
-        <v>1.034734178354324</v>
+        <v>1.033426967515547</v>
       </c>
       <c r="E7">
-        <v>1.018706547548341</v>
+        <v>1.018126111940978</v>
       </c>
       <c r="F7">
-        <v>1.039676940066173</v>
+        <v>1.038734594204205</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052016715263002</v>
+        <v>1.051350704578736</v>
       </c>
       <c r="J7">
-        <v>1.033742290776261</v>
+        <v>1.033082775524825</v>
       </c>
       <c r="K7">
-        <v>1.044427847888425</v>
+        <v>1.043135155042811</v>
       </c>
       <c r="L7">
-        <v>1.028581396667676</v>
+        <v>1.0280076545999</v>
       </c>
       <c r="M7">
-        <v>1.049316120217666</v>
+        <v>1.048384113698624</v>
       </c>
       <c r="N7">
-        <v>1.01516715889276</v>
+        <v>1.016013721137909</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047602757228533</v>
+        <v>1.046865143365258</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04250288132371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041599394579888</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023355368612796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01049292292205</v>
+        <v>1.009961241450876</v>
       </c>
       <c r="D8">
-        <v>1.031894109288413</v>
+        <v>1.030774776806412</v>
       </c>
       <c r="E8">
-        <v>1.015436237812309</v>
+        <v>1.014983060973245</v>
       </c>
       <c r="F8">
-        <v>1.036568336596195</v>
+        <v>1.03576042161341</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050982561994821</v>
+        <v>1.050425127404407</v>
       </c>
       <c r="J8">
-        <v>1.031801065286742</v>
+        <v>1.03128438306083</v>
       </c>
       <c r="K8">
-        <v>1.042658713527212</v>
+        <v>1.041553415529551</v>
       </c>
       <c r="L8">
-        <v>1.026411097536956</v>
+        <v>1.025963831002045</v>
       </c>
       <c r="M8">
-        <v>1.047274742043838</v>
+        <v>1.046476839643247</v>
       </c>
       <c r="N8">
-        <v>1.01451573549601</v>
+        <v>1.015587482524148</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045987157222853</v>
+        <v>1.045355675458806</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041256513865769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040485990756995</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023063366355146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002775494595041</v>
+        <v>1.002491572049955</v>
       </c>
       <c r="D9">
-        <v>1.026722493049872</v>
+        <v>1.025935189891996</v>
       </c>
       <c r="E9">
-        <v>1.009499970542561</v>
+        <v>1.00926416990583</v>
       </c>
       <c r="F9">
-        <v>1.03093871309445</v>
+        <v>1.03036912839548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049015397282077</v>
+        <v>1.048646798516698</v>
       </c>
       <c r="J9">
-        <v>1.028230622257575</v>
+        <v>1.027956652241532</v>
       </c>
       <c r="K9">
-        <v>1.039396399591244</v>
+        <v>1.038621048149003</v>
       </c>
       <c r="L9">
-        <v>1.02244077500078</v>
+        <v>1.022208709521555</v>
       </c>
       <c r="M9">
-        <v>1.043549010376938</v>
+        <v>1.042987980171951</v>
       </c>
       <c r="N9">
-        <v>1.013316551331659</v>
+        <v>1.014710399047824</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043038506702737</v>
+        <v>1.042594490332431</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038946693980769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038409181190327</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022499845890829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9974794284008088</v>
+        <v>0.9973935936316669</v>
       </c>
       <c r="D10">
-        <v>1.023228175900381</v>
+        <v>1.022685715965289</v>
       </c>
       <c r="E10">
-        <v>1.005464181690356</v>
+        <v>1.005401847945022</v>
       </c>
       <c r="F10">
-        <v>1.027223541971336</v>
+        <v>1.026830524035976</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047642958274392</v>
+        <v>1.047416350270514</v>
       </c>
       <c r="J10">
-        <v>1.02579340947075</v>
+        <v>1.025711005093481</v>
       </c>
       <c r="K10">
-        <v>1.037190332165983</v>
+        <v>1.036657107050837</v>
       </c>
       <c r="L10">
-        <v>1.019735474555425</v>
+        <v>1.019674250533019</v>
       </c>
       <c r="M10">
-        <v>1.041118068789719</v>
+        <v>1.040731673353249</v>
       </c>
       <c r="N10">
-        <v>1.012502639291968</v>
+        <v>1.014232134824969</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041165854804566</v>
+        <v>1.040860067888309</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037403641633334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037039002106244</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022119484244906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9954585857611041</v>
+        <v>0.995463868793749</v>
       </c>
       <c r="D11">
-        <v>1.022141931339692</v>
+        <v>1.021689396595075</v>
       </c>
       <c r="E11">
-        <v>1.003976896927637</v>
+        <v>1.003992940496055</v>
       </c>
       <c r="F11">
-        <v>1.026662146080496</v>
+        <v>1.026334564945945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047274886881997</v>
+        <v>1.047104571418782</v>
       </c>
       <c r="J11">
-        <v>1.025021520945551</v>
+        <v>1.025026581333357</v>
       </c>
       <c r="K11">
-        <v>1.036658024258803</v>
+        <v>1.036213555110117</v>
       </c>
       <c r="L11">
-        <v>1.018824202487855</v>
+        <v>1.018839946624277</v>
       </c>
       <c r="M11">
-        <v>1.041098180390402</v>
+        <v>1.040776370396176</v>
       </c>
       <c r="N11">
-        <v>1.012279460526069</v>
+        <v>1.014301672892683</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041584764642848</v>
+        <v>1.041330216856625</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03706003377164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036761360093419</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022081285768779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9948011553535373</v>
+        <v>0.9948301080024311</v>
       </c>
       <c r="D12">
-        <v>1.021877712018182</v>
+        <v>1.021444672136451</v>
       </c>
       <c r="E12">
-        <v>1.003511433307616</v>
+        <v>1.00354667371381</v>
       </c>
       <c r="F12">
-        <v>1.026821544842166</v>
+        <v>1.026508338072588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047212557990394</v>
+        <v>1.047055369024684</v>
       </c>
       <c r="J12">
-        <v>1.024827181054378</v>
+        <v>1.024854890078635</v>
       </c>
       <c r="K12">
-        <v>1.036597438850346</v>
+        <v>1.036172244119625</v>
       </c>
       <c r="L12">
-        <v>1.01857166759161</v>
+        <v>1.018606239041838</v>
       </c>
       <c r="M12">
-        <v>1.041452315962226</v>
+        <v>1.04114471178887</v>
       </c>
       <c r="N12">
-        <v>1.012241244839295</v>
+        <v>1.014375064890356</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042190119808129</v>
+        <v>1.041946890452998</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037017198155726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036732152628282</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022105480140254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9951598900208716</v>
+        <v>0.9951532434298299</v>
       </c>
       <c r="D13">
-        <v>1.022244718561806</v>
+        <v>1.021772244220903</v>
       </c>
       <c r="E13">
-        <v>1.003808836270004</v>
+        <v>1.003811319536679</v>
       </c>
       <c r="F13">
-        <v>1.027572148331487</v>
+        <v>1.027230725569968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047394936090472</v>
+        <v>1.047214106303264</v>
       </c>
       <c r="J13">
-        <v>1.025077137940192</v>
+        <v>1.025070775521391</v>
       </c>
       <c r="K13">
-        <v>1.036915156785765</v>
+        <v>1.036451205886476</v>
       </c>
       <c r="L13">
-        <v>1.018819636993396</v>
+        <v>1.018822073313762</v>
       </c>
       <c r="M13">
-        <v>1.042147183692592</v>
+        <v>1.04181183656176</v>
       </c>
       <c r="N13">
-        <v>1.012348359168316</v>
+        <v>1.014425204240304</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04301529964739</v>
+        <v>1.042750199549559</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037239348512269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036926654965564</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022184764784875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9958709765478369</v>
+        <v>0.9958134854918202</v>
       </c>
       <c r="D14">
-        <v>1.022786709352993</v>
+        <v>1.022260798318164</v>
       </c>
       <c r="E14">
-        <v>1.004362221060574</v>
+        <v>1.00431920617819</v>
       </c>
       <c r="F14">
-        <v>1.028362797306654</v>
+        <v>1.027983003565839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047632580715192</v>
+        <v>1.047419084433192</v>
       </c>
       <c r="J14">
-        <v>1.025452443461476</v>
+        <v>1.025397376096535</v>
       </c>
       <c r="K14">
-        <v>1.037307749153173</v>
+        <v>1.036791209251981</v>
       </c>
       <c r="L14">
-        <v>1.019219200050219</v>
+        <v>1.019176988293304</v>
       </c>
       <c r="M14">
-        <v>1.042785241625224</v>
+        <v>1.042412119340272</v>
       </c>
       <c r="N14">
-        <v>1.012488917621635</v>
+        <v>1.014450934723784</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043692475942508</v>
+        <v>1.043397553285156</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037518343001994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037168601259877</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02226519121793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9962702419834948</v>
+        <v>0.9961875678293693</v>
       </c>
       <c r="D15">
-        <v>1.023065873834817</v>
+        <v>1.022513891936555</v>
       </c>
       <c r="E15">
-        <v>1.004667994241046</v>
+        <v>1.004602738060215</v>
       </c>
       <c r="F15">
-        <v>1.028704393449122</v>
+        <v>1.028305851642873</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047749180781844</v>
+        <v>1.047519636251961</v>
       </c>
       <c r="J15">
-        <v>1.025646977067581</v>
+        <v>1.025567758375296</v>
       </c>
       <c r="K15">
-        <v>1.037495940795864</v>
+        <v>1.03695372091403</v>
       </c>
       <c r="L15">
-        <v>1.019430971359571</v>
+        <v>1.019366924289674</v>
       </c>
       <c r="M15">
-        <v>1.043035517959451</v>
+        <v>1.042643923456008</v>
       </c>
       <c r="N15">
-        <v>1.012557344483511</v>
+        <v>1.014456886062801</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043927726307734</v>
+        <v>1.043618210992407</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037657253003059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037289923368443</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022299929893393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.998440361368649</v>
+        <v>0.9982395758799479</v>
       </c>
       <c r="D16">
-        <v>1.024480721869748</v>
+        <v>1.023805081331128</v>
       </c>
       <c r="E16">
-        <v>1.006311503008887</v>
+        <v>1.00614318413299</v>
       </c>
       <c r="F16">
-        <v>1.030173997297592</v>
+        <v>1.029686420935286</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048312529993169</v>
+        <v>1.048007011613083</v>
       </c>
       <c r="J16">
-        <v>1.026639011825588</v>
+        <v>1.026446204543061</v>
       </c>
       <c r="K16">
-        <v>1.038386180443202</v>
+        <v>1.037721974143059</v>
       </c>
       <c r="L16">
-        <v>1.020531383073176</v>
+        <v>1.020366045852194</v>
       </c>
       <c r="M16">
-        <v>1.043983872795305</v>
+        <v>1.043504428919448</v>
       </c>
       <c r="N16">
-        <v>1.012884590576546</v>
+        <v>1.014481361423936</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044638697773137</v>
+        <v>1.044259735833368</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038289838893454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037836559996123</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022445917871567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9997361831708834</v>
+        <v>0.9994779777919222</v>
       </c>
       <c r="D17">
-        <v>1.025284906061784</v>
+        <v>1.024546623660526</v>
       </c>
       <c r="E17">
-        <v>1.007286755896204</v>
+        <v>1.007068781539215</v>
       </c>
       <c r="F17">
-        <v>1.030883028191618</v>
+        <v>1.030350271666741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048618695081058</v>
+        <v>1.048275172409443</v>
       </c>
       <c r="J17">
-        <v>1.027204503246825</v>
+        <v>1.026956231334479</v>
       </c>
       <c r="K17">
-        <v>1.038863662632659</v>
+        <v>1.038137528032585</v>
       </c>
       <c r="L17">
-        <v>1.021168216877513</v>
+        <v>1.020953994291536</v>
       </c>
       <c r="M17">
-        <v>1.044370399527849</v>
+        <v>1.04384628495189</v>
       </c>
       <c r="N17">
-        <v>1.013062290627118</v>
+        <v>1.014515305365834</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044815563550593</v>
+        <v>1.044401251984996</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038630015855782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038133198962155</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022516232929778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,105 +1431,123 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000389011936833</v>
+        <v>1.000113529694271</v>
       </c>
       <c r="D18">
-        <v>1.025609353419567</v>
+        <v>1.024851738884821</v>
       </c>
       <c r="E18">
-        <v>1.007763547471602</v>
+        <v>1.007531385362832</v>
       </c>
       <c r="F18">
-        <v>1.03093845164967</v>
+        <v>1.030391500497255</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048717815201681</v>
+        <v>1.048362620966892</v>
       </c>
       <c r="J18">
-        <v>1.027437330920731</v>
+        <v>1.027172248700169</v>
       </c>
       <c r="K18">
-        <v>1.039000207896449</v>
+        <v>1.038254857366911</v>
       </c>
       <c r="L18">
-        <v>1.021449604198459</v>
+        <v>1.021221371396741</v>
       </c>
       <c r="M18">
-        <v>1.044243693363344</v>
+        <v>1.043705476782723</v>
       </c>
       <c r="N18">
-        <v>1.013120223415134</v>
+        <v>1.014518260837066</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044478482406294</v>
+        <v>1.044052935105576</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038714958210795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038203420795744</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022517914423069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>1.000456210181242</v>
+        <v>1.000196077851411</v>
       </c>
       <c r="D19">
-        <v>1.025498347718515</v>
+        <v>1.024758973862256</v>
       </c>
       <c r="E19">
-        <v>1.007785870148371</v>
+        <v>1.007568346157866</v>
       </c>
       <c r="F19">
-        <v>1.030389996044432</v>
+        <v>1.029855709069426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048630139476792</v>
+        <v>1.048285653098288</v>
       </c>
       <c r="J19">
-        <v>1.027367467004924</v>
+        <v>1.027117095719667</v>
       </c>
       <c r="K19">
-        <v>1.038828733608992</v>
+        <v>1.03810126772674</v>
       </c>
       <c r="L19">
-        <v>1.02140771936527</v>
+        <v>1.021193856932902</v>
       </c>
       <c r="M19">
-        <v>1.043642151197946</v>
+        <v>1.04311636259562</v>
       </c>
       <c r="N19">
-        <v>1.013071785568026</v>
+        <v>1.014475110435571</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043678482516623</v>
+        <v>1.043262626606992</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038600096306988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038101828872688</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022457945323438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9988713741943291</v>
+        <v>0.9987151978433471</v>
       </c>
       <c r="D20">
-        <v>1.024161290253706</v>
+        <v>1.023542483680518</v>
       </c>
       <c r="E20">
-        <v>1.006525732681981</v>
+        <v>1.006401419337143</v>
       </c>
       <c r="F20">
-        <v>1.028208378686266</v>
+        <v>1.027760219854418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048018403885802</v>
+        <v>1.04774548769819</v>
       </c>
       <c r="J20">
-        <v>1.026445871906669</v>
+        <v>1.026295736456891</v>
       </c>
       <c r="K20">
-        <v>1.037792192804296</v>
+        <v>1.037183624413457</v>
       </c>
       <c r="L20">
-        <v>1.020454797361399</v>
+        <v>1.020332633746803</v>
       </c>
       <c r="M20">
-        <v>1.041772712588111</v>
+        <v>1.04133189212252</v>
       </c>
       <c r="N20">
-        <v>1.012723242037149</v>
+        <v>1.014291008419498</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04167341960803</v>
+        <v>1.041324557426801</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037871135514914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037457324094699</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022224633192817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9948399873588868</v>
+        <v>0.9949263232995088</v>
       </c>
       <c r="D21">
-        <v>1.021460056453362</v>
+        <v>1.021091979693998</v>
       </c>
       <c r="E21">
-        <v>1.003456292451544</v>
+        <v>1.003546228532015</v>
       </c>
       <c r="F21">
-        <v>1.025228959094052</v>
+        <v>1.024962015061465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046924418292321</v>
+        <v>1.046806122634327</v>
       </c>
       <c r="J21">
-        <v>1.024555042062346</v>
+        <v>1.024637715205029</v>
       </c>
       <c r="K21">
-        <v>1.036045956523592</v>
+        <v>1.035684480770701</v>
       </c>
       <c r="L21">
-        <v>1.018372478844839</v>
+        <v>1.018460726549884</v>
       </c>
       <c r="M21">
-        <v>1.039747622405802</v>
+        <v>1.039485419507328</v>
       </c>
       <c r="N21">
-        <v>1.012085296631253</v>
+        <v>1.01426339758957</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040029967302221</v>
+        <v>1.039822451122906</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036639702983952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036400923246479</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021928225024482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9922718867368963</v>
+        <v>0.99251005876131</v>
       </c>
       <c r="D22">
-        <v>1.019753918320518</v>
+        <v>1.019542717322234</v>
       </c>
       <c r="E22">
-        <v>1.001509820359154</v>
+        <v>1.001733872226507</v>
       </c>
       <c r="F22">
-        <v>1.02339162309006</v>
+        <v>1.023238328976118</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046224987140601</v>
+        <v>1.046203098907007</v>
       </c>
       <c r="J22">
-        <v>1.023355062241612</v>
+        <v>1.023582549599984</v>
       </c>
       <c r="K22">
-        <v>1.034943947204465</v>
+        <v>1.034736722171546</v>
       </c>
       <c r="L22">
-        <v>1.017051426632201</v>
+        <v>1.017271058845217</v>
       </c>
       <c r="M22">
-        <v>1.038513506419227</v>
+        <v>1.038363071221362</v>
       </c>
       <c r="N22">
-        <v>1.011681427733299</v>
+        <v>1.014238668291097</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039053245942784</v>
+        <v>1.038934186320573</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03584706357632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035716045962636</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021740101422324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9936300883645972</v>
+        <v>0.9937779875027632</v>
       </c>
       <c r="D23">
-        <v>1.020650389019535</v>
+        <v>1.020349364347979</v>
       </c>
       <c r="E23">
-        <v>1.00253741196934</v>
+        <v>1.002681601181773</v>
       </c>
       <c r="F23">
-        <v>1.024360344830552</v>
+        <v>1.024141947891162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046592014508014</v>
+        <v>1.046514143801212</v>
       </c>
       <c r="J23">
-        <v>1.023986111177635</v>
+        <v>1.024127567361736</v>
       </c>
       <c r="K23">
-        <v>1.035519960728407</v>
+        <v>1.035224460329157</v>
       </c>
       <c r="L23">
-        <v>1.017747118957838</v>
+        <v>1.017888536968659</v>
       </c>
       <c r="M23">
-        <v>1.039162179899974</v>
+        <v>1.038947752779676</v>
       </c>
       <c r="N23">
-        <v>1.011892861901295</v>
+        <v>1.014207876335833</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03956662835998</v>
+        <v>1.039396923431008</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036244716060636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036050341888312</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02183495893779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9988945049077848</v>
+        <v>0.9987399364179278</v>
       </c>
       <c r="D24">
-        <v>1.024144677891394</v>
+        <v>1.023527621953467</v>
       </c>
       <c r="E24">
-        <v>1.006537322566769</v>
+        <v>1.00641461990469</v>
       </c>
       <c r="F24">
-        <v>1.028137674024127</v>
+        <v>1.027690723690841</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048002447080825</v>
+        <v>1.047730618492035</v>
       </c>
       <c r="J24">
-        <v>1.026435176470102</v>
+        <v>1.026286577885225</v>
       </c>
       <c r="K24">
-        <v>1.037760650292378</v>
+        <v>1.037153790903048</v>
       </c>
       <c r="L24">
-        <v>1.020450599928104</v>
+        <v>1.020330016344619</v>
       </c>
       <c r="M24">
-        <v>1.041688044392384</v>
+        <v>1.041248404558129</v>
       </c>
       <c r="N24">
-        <v>1.012715134333968</v>
+        <v>1.01428146577405</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04156568056965</v>
+        <v>1.041217735547572</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03782150176612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03740622773191</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022212326365705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004816668188052</v>
+        <v>1.00445866966166</v>
       </c>
       <c r="D25">
-        <v>1.028095884714145</v>
+        <v>1.027215285218833</v>
       </c>
       <c r="E25">
-        <v>1.011066363327811</v>
+        <v>1.010765485885008</v>
       </c>
       <c r="F25">
-        <v>1.03242429594243</v>
+        <v>1.031787607738399</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049550326651098</v>
+        <v>1.049127729658508</v>
       </c>
       <c r="J25">
-        <v>1.02918301248112</v>
+        <v>1.02883690786972</v>
       </c>
       <c r="K25">
-        <v>1.040273160440611</v>
+        <v>1.039405314144429</v>
       </c>
       <c r="L25">
-        <v>1.023495283303561</v>
+        <v>1.023198948994141</v>
       </c>
       <c r="M25">
-        <v>1.044539286252769</v>
+        <v>1.043911718425247</v>
       </c>
       <c r="N25">
-        <v>1.013637883313745</v>
+        <v>1.01491316493803</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043822240493188</v>
+        <v>1.043325564741188</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039595112667574</v>
+        <v>1.038995003083161</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022654211780261</v>
       </c>
     </row>
   </sheetData>
